--- a/database/industries/lastic/pekavir/product/monthly_seprated.xlsx
+++ b/database/industries/lastic/pekavir/product/monthly_seprated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\lastic\pekavir\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8835A9EC-F223-439C-AF1C-733B89667C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E324AB-728D-453A-90E5-50321C0AEABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="84">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,12 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>ماه 9 منتهی به 1397/06</t>
-  </si>
-  <si>
-    <t>ماه 10 منتهی به 1397/07</t>
-  </si>
-  <si>
     <t>ماه 11 منتهی به 1397/08</t>
   </si>
   <si>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 10 منتهی به 1401/07</t>
+  </si>
+  <si>
+    <t>ماه 11 منتهی به 1401/08</t>
+  </si>
+  <si>
+    <t>ماه 12 منتهی به 1401/09</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -1507,77 +1507,77 @@
       <c r="AD11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF11" s="11" t="s">
-        <v>58</v>
+      <c r="AE11" s="11">
+        <v>2412</v>
+      </c>
+      <c r="AF11" s="11">
+        <v>2286</v>
       </c>
       <c r="AG11" s="11">
-        <v>2412</v>
+        <v>2531</v>
       </c>
       <c r="AH11" s="11">
-        <v>2286</v>
+        <v>2673</v>
       </c>
       <c r="AI11" s="11">
-        <v>2531</v>
+        <v>2768</v>
       </c>
       <c r="AJ11" s="11">
-        <v>2673</v>
+        <v>1862</v>
       </c>
       <c r="AK11" s="11">
-        <v>2768</v>
+        <v>2573</v>
       </c>
       <c r="AL11" s="11">
-        <v>1862</v>
+        <v>2495</v>
       </c>
       <c r="AM11" s="11">
-        <v>2573</v>
+        <v>2343</v>
       </c>
       <c r="AN11" s="11">
-        <v>2495</v>
+        <v>2157</v>
       </c>
       <c r="AO11" s="11">
-        <v>2343</v>
+        <v>2742</v>
       </c>
       <c r="AP11" s="11">
-        <v>2157</v>
+        <v>2754</v>
       </c>
       <c r="AQ11" s="11">
-        <v>2742</v>
+        <v>2841</v>
       </c>
       <c r="AR11" s="11">
-        <v>2754</v>
+        <v>2631</v>
       </c>
       <c r="AS11" s="11">
-        <v>2841</v>
+        <v>2674</v>
       </c>
       <c r="AT11" s="11">
-        <v>2631</v>
+        <v>2823</v>
       </c>
       <c r="AU11" s="11">
-        <v>2674</v>
+        <v>2594</v>
       </c>
       <c r="AV11" s="11">
-        <v>2823</v>
+        <v>2989</v>
       </c>
       <c r="AW11" s="11">
-        <v>2594</v>
+        <v>2732</v>
       </c>
       <c r="AX11" s="11">
-        <v>2989</v>
+        <v>2746</v>
       </c>
       <c r="AY11" s="11">
-        <v>2732</v>
+        <v>2355</v>
       </c>
       <c r="AZ11" s="11">
-        <v>2746</v>
+        <v>2656</v>
       </c>
       <c r="BA11" s="11">
-        <v>2355</v>
+        <v>2696</v>
       </c>
       <c r="BB11" s="11">
-        <v>2656</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="12" spans="2:54" x14ac:dyDescent="0.3">
@@ -1666,62 +1666,62 @@
       <c r="AD12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AE12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF12" s="13" t="s">
-        <v>58</v>
+      <c r="AE12" s="13">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="13">
+        <v>0</v>
       </c>
       <c r="AG12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="13">
+        <v>3</v>
+      </c>
+      <c r="AL12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="13">
+        <v>2</v>
+      </c>
+      <c r="AO12" s="13">
         <v>1</v>
       </c>
-      <c r="AH12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AJ12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AK12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AL12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AM12" s="13">
-        <v>3</v>
-      </c>
-      <c r="AN12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AO12" s="13">
-        <v>0</v>
-      </c>
       <c r="AP12" s="13">
-        <v>2</v>
-      </c>
-      <c r="AQ12" s="13">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AR12" s="13">
         <v>0</v>
       </c>
-      <c r="AS12" s="13" t="s">
-        <v>58</v>
+      <c r="AS12" s="13">
+        <v>0</v>
       </c>
       <c r="AT12" s="13">
         <v>0</v>
       </c>
-      <c r="AU12" s="13" t="s">
-        <v>58</v>
+      <c r="AU12" s="13">
+        <v>0</v>
       </c>
       <c r="AV12" s="13">
         <v>0</v>
       </c>
-      <c r="AW12" s="13" t="s">
-        <v>58</v>
+      <c r="AW12" s="13">
+        <v>0</v>
       </c>
       <c r="AX12" s="13">
         <v>0</v>
@@ -1824,76 +1824,76 @@
         <v>0</v>
       </c>
       <c r="AE13" s="15">
-        <v>0</v>
+        <v>2413</v>
       </c>
       <c r="AF13" s="15">
-        <v>0</v>
+        <v>2286</v>
       </c>
       <c r="AG13" s="15">
-        <v>2413</v>
+        <v>2531</v>
       </c>
       <c r="AH13" s="15">
-        <v>2286</v>
+        <v>2673</v>
       </c>
       <c r="AI13" s="15">
-        <v>2531</v>
+        <v>2768</v>
       </c>
       <c r="AJ13" s="15">
-        <v>2673</v>
+        <v>1862</v>
       </c>
       <c r="AK13" s="15">
-        <v>2768</v>
+        <v>2575</v>
       </c>
       <c r="AL13" s="15">
-        <v>1862</v>
+        <v>2495</v>
       </c>
       <c r="AM13" s="15">
-        <v>2575</v>
+        <v>2343</v>
       </c>
       <c r="AN13" s="15">
-        <v>2495</v>
+        <v>2159</v>
       </c>
       <c r="AO13" s="15">
-        <v>2343</v>
+        <v>2743</v>
       </c>
       <c r="AP13" s="15">
-        <v>2159</v>
+        <v>2754</v>
       </c>
       <c r="AQ13" s="15">
-        <v>2743</v>
+        <v>2841</v>
       </c>
       <c r="AR13" s="15">
-        <v>2754</v>
+        <v>2631</v>
       </c>
       <c r="AS13" s="15">
-        <v>2841</v>
+        <v>2674</v>
       </c>
       <c r="AT13" s="15">
-        <v>2631</v>
+        <v>2823</v>
       </c>
       <c r="AU13" s="15">
-        <v>2674</v>
+        <v>2594</v>
       </c>
       <c r="AV13" s="15">
-        <v>2823</v>
+        <v>2989</v>
       </c>
       <c r="AW13" s="15">
-        <v>2594</v>
+        <v>2732</v>
       </c>
       <c r="AX13" s="15">
-        <v>2989</v>
+        <v>2746</v>
       </c>
       <c r="AY13" s="15">
-        <v>2732</v>
+        <v>2355</v>
       </c>
       <c r="AZ13" s="15">
-        <v>2746</v>
+        <v>2656</v>
       </c>
       <c r="BA13" s="15">
-        <v>2355</v>
+        <v>2696</v>
       </c>
       <c r="BB13" s="15">
-        <v>2656</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="14" spans="2:54" x14ac:dyDescent="0.3">
@@ -2251,11 +2251,11 @@
       <c r="AD17" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AE17" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF17" s="15" t="s">
-        <v>58</v>
+      <c r="AE17" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="15">
+        <v>0</v>
       </c>
       <c r="AG17" s="15">
         <v>0</v>
@@ -2409,76 +2409,76 @@
         <v>0</v>
       </c>
       <c r="AE18" s="19">
-        <v>0</v>
+        <v>2413</v>
       </c>
       <c r="AF18" s="19">
-        <v>0</v>
+        <v>2286</v>
       </c>
       <c r="AG18" s="19">
-        <v>2413</v>
+        <v>2531</v>
       </c>
       <c r="AH18" s="19">
-        <v>2286</v>
+        <v>2673</v>
       </c>
       <c r="AI18" s="19">
-        <v>2531</v>
+        <v>2768</v>
       </c>
       <c r="AJ18" s="19">
-        <v>2673</v>
+        <v>1862</v>
       </c>
       <c r="AK18" s="19">
-        <v>2768</v>
+        <v>2575</v>
       </c>
       <c r="AL18" s="19">
-        <v>1862</v>
+        <v>2495</v>
       </c>
       <c r="AM18" s="19">
-        <v>2575</v>
+        <v>2343</v>
       </c>
       <c r="AN18" s="19">
-        <v>2495</v>
+        <v>2159</v>
       </c>
       <c r="AO18" s="19">
-        <v>2343</v>
+        <v>2743</v>
       </c>
       <c r="AP18" s="19">
-        <v>2159</v>
+        <v>2754</v>
       </c>
       <c r="AQ18" s="19">
-        <v>2743</v>
+        <v>2841</v>
       </c>
       <c r="AR18" s="19">
-        <v>2754</v>
+        <v>2631</v>
       </c>
       <c r="AS18" s="19">
-        <v>2841</v>
+        <v>2674</v>
       </c>
       <c r="AT18" s="19">
-        <v>2631</v>
+        <v>2823</v>
       </c>
       <c r="AU18" s="19">
-        <v>2674</v>
+        <v>2594</v>
       </c>
       <c r="AV18" s="19">
-        <v>2823</v>
+        <v>2989</v>
       </c>
       <c r="AW18" s="19">
-        <v>2594</v>
+        <v>2732</v>
       </c>
       <c r="AX18" s="19">
-        <v>2989</v>
+        <v>2746</v>
       </c>
       <c r="AY18" s="19">
-        <v>2732</v>
+        <v>2355</v>
       </c>
       <c r="AZ18" s="19">
-        <v>2746</v>
+        <v>2656</v>
       </c>
       <c r="BA18" s="19">
-        <v>2355</v>
+        <v>2696</v>
       </c>
       <c r="BB18" s="19">
-        <v>2656</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="19" spans="2:54" x14ac:dyDescent="0.3">
@@ -3001,77 +3001,77 @@
       <c r="AD25" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE25" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF25" s="11" t="s">
-        <v>58</v>
+      <c r="AE25" s="11">
+        <v>1930</v>
+      </c>
+      <c r="AF25" s="11">
+        <v>2128</v>
       </c>
       <c r="AG25" s="11">
-        <v>1930</v>
+        <v>2471</v>
       </c>
       <c r="AH25" s="11">
-        <v>2128</v>
+        <v>2290</v>
       </c>
       <c r="AI25" s="11">
-        <v>2471</v>
+        <v>2742</v>
       </c>
       <c r="AJ25" s="11">
-        <v>2290</v>
+        <v>2892</v>
       </c>
       <c r="AK25" s="11">
-        <v>2742</v>
+        <v>1939</v>
       </c>
       <c r="AL25" s="11">
-        <v>2892</v>
+        <v>2494</v>
       </c>
       <c r="AM25" s="11">
-        <v>1939</v>
+        <v>2559</v>
       </c>
       <c r="AN25" s="11">
-        <v>2494</v>
+        <v>2111</v>
       </c>
       <c r="AO25" s="11">
-        <v>2559</v>
+        <v>2402</v>
       </c>
       <c r="AP25" s="11">
-        <v>2111</v>
+        <v>3772</v>
       </c>
       <c r="AQ25" s="11">
-        <v>2402</v>
+        <v>2245</v>
       </c>
       <c r="AR25" s="11">
-        <v>3772</v>
+        <v>2598</v>
       </c>
       <c r="AS25" s="11">
-        <v>2245</v>
+        <v>2574</v>
       </c>
       <c r="AT25" s="11">
-        <v>2598</v>
+        <v>2218</v>
       </c>
       <c r="AU25" s="11">
-        <v>2574</v>
+        <v>3052</v>
       </c>
       <c r="AV25" s="11">
-        <v>2218</v>
+        <v>3759</v>
       </c>
       <c r="AW25" s="11">
-        <v>3052</v>
+        <v>2414</v>
       </c>
       <c r="AX25" s="11">
-        <v>3758756</v>
+        <v>2778</v>
       </c>
       <c r="AY25" s="11">
-        <v>2414</v>
+        <v>2289</v>
       </c>
       <c r="AZ25" s="11">
-        <v>2773</v>
+        <v>2455</v>
       </c>
       <c r="BA25" s="11">
-        <v>2289</v>
+        <v>3109</v>
       </c>
       <c r="BB25" s="11">
-        <v>2455</v>
+        <v>3189</v>
       </c>
     </row>
     <row r="26" spans="2:54" x14ac:dyDescent="0.3">
@@ -3160,62 +3160,62 @@
       <c r="AD26" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AE26" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF26" s="13" t="s">
-        <v>58</v>
+      <c r="AE26" s="13">
+        <v>2</v>
+      </c>
+      <c r="AF26" s="13">
+        <v>2</v>
       </c>
       <c r="AG26" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH26" s="13">
         <v>2</v>
       </c>
       <c r="AI26" s="13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK26" s="13">
         <v>2</v>
       </c>
-      <c r="AK26" s="13">
-        <v>0</v>
-      </c>
       <c r="AL26" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM26" s="13">
+        <v>1</v>
+      </c>
+      <c r="AN26" s="13">
+        <v>0</v>
+      </c>
+      <c r="AO26" s="13">
         <v>2</v>
       </c>
-      <c r="AN26" s="13">
-        <v>2</v>
-      </c>
-      <c r="AO26" s="13">
+      <c r="AP26" s="13">
         <v>1</v>
       </c>
-      <c r="AP26" s="13">
-        <v>0</v>
-      </c>
-      <c r="AQ26" s="13">
-        <v>2</v>
+      <c r="AQ26" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AR26" s="13">
-        <v>1</v>
-      </c>
-      <c r="AS26" s="13" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AS26" s="13">
+        <v>0</v>
       </c>
       <c r="AT26" s="13">
         <v>0</v>
       </c>
-      <c r="AU26" s="13" t="s">
-        <v>58</v>
+      <c r="AU26" s="13">
+        <v>0</v>
       </c>
       <c r="AV26" s="13">
         <v>0</v>
       </c>
-      <c r="AW26" s="13" t="s">
-        <v>58</v>
+      <c r="AW26" s="13">
+        <v>0</v>
       </c>
       <c r="AX26" s="13">
         <v>0</v>
@@ -3318,76 +3318,76 @@
         <v>0</v>
       </c>
       <c r="AE27" s="15">
-        <v>0</v>
+        <v>1932</v>
       </c>
       <c r="AF27" s="15">
-        <v>0</v>
+        <v>2130</v>
       </c>
       <c r="AG27" s="15">
-        <v>1932</v>
+        <v>2475</v>
       </c>
       <c r="AH27" s="15">
-        <v>2130</v>
+        <v>2292</v>
       </c>
       <c r="AI27" s="15">
-        <v>2475</v>
+        <v>2742</v>
       </c>
       <c r="AJ27" s="15">
-        <v>2292</v>
+        <v>2892</v>
       </c>
       <c r="AK27" s="15">
-        <v>2742</v>
+        <v>1941</v>
       </c>
       <c r="AL27" s="15">
-        <v>2892</v>
+        <v>2496</v>
       </c>
       <c r="AM27" s="15">
-        <v>1941</v>
+        <v>2560</v>
       </c>
       <c r="AN27" s="15">
-        <v>2496</v>
+        <v>2112</v>
       </c>
       <c r="AO27" s="15">
-        <v>2560</v>
+        <v>2404</v>
       </c>
       <c r="AP27" s="15">
-        <v>2112</v>
+        <v>3773</v>
       </c>
       <c r="AQ27" s="15">
-        <v>2404</v>
+        <v>2245</v>
       </c>
       <c r="AR27" s="15">
-        <v>3773</v>
+        <v>2598</v>
       </c>
       <c r="AS27" s="15">
-        <v>2245</v>
+        <v>2574</v>
       </c>
       <c r="AT27" s="15">
-        <v>2598</v>
+        <v>2218</v>
       </c>
       <c r="AU27" s="15">
-        <v>2574</v>
+        <v>3052</v>
       </c>
       <c r="AV27" s="15">
-        <v>2218</v>
+        <v>3759</v>
       </c>
       <c r="AW27" s="15">
-        <v>3052</v>
+        <v>2414</v>
       </c>
       <c r="AX27" s="15">
-        <v>3758756</v>
+        <v>2778</v>
       </c>
       <c r="AY27" s="15">
-        <v>2414</v>
+        <v>2289</v>
       </c>
       <c r="AZ27" s="15">
-        <v>2773</v>
+        <v>2455</v>
       </c>
       <c r="BA27" s="15">
-        <v>2289</v>
+        <v>3109</v>
       </c>
       <c r="BB27" s="15">
-        <v>2455</v>
+        <v>3189</v>
       </c>
     </row>
     <row r="28" spans="2:54" x14ac:dyDescent="0.3">
@@ -3745,11 +3745,11 @@
       <c r="AD31" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AE31" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF31" s="15" t="s">
-        <v>58</v>
+      <c r="AE31" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="15">
+        <v>0</v>
       </c>
       <c r="AG31" s="15">
         <v>0</v>
@@ -3961,56 +3961,56 @@
       <c r="AD33" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE33" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF33" s="11" t="s">
-        <v>58</v>
+      <c r="AE33" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="11">
+        <v>0</v>
       </c>
       <c r="AG33" s="11">
-        <v>0</v>
+        <v>-17</v>
       </c>
       <c r="AH33" s="11">
         <v>0</v>
       </c>
       <c r="AI33" s="11">
-        <v>-17</v>
+        <v>0</v>
       </c>
       <c r="AJ33" s="11">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="AK33" s="11">
         <v>0</v>
       </c>
       <c r="AL33" s="11">
+        <v>-33</v>
+      </c>
+      <c r="AM33" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN33" s="11">
+        <v>0</v>
+      </c>
+      <c r="AO33" s="11">
+        <v>0</v>
+      </c>
+      <c r="AP33" s="11">
+        <v>-2</v>
+      </c>
+      <c r="AQ33" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR33" s="11">
+        <v>-1</v>
+      </c>
+      <c r="AS33" s="11">
         <v>-10</v>
       </c>
-      <c r="AM33" s="11">
-        <v>0</v>
-      </c>
-      <c r="AN33" s="11">
-        <v>-33</v>
-      </c>
-      <c r="AO33" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP33" s="11">
-        <v>0</v>
-      </c>
-      <c r="AQ33" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR33" s="11">
-        <v>-2</v>
-      </c>
-      <c r="AS33" s="11" t="s">
-        <v>58</v>
-      </c>
       <c r="AT33" s="11">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AU33" s="11">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="AV33" s="11">
         <v>0</v>
@@ -4019,19 +4019,19 @@
         <v>0</v>
       </c>
       <c r="AX33" s="11">
-        <v>0</v>
-      </c>
-      <c r="AY33" s="11" t="s">
-        <v>58</v>
+        <v>-6</v>
+      </c>
+      <c r="AY33" s="11">
+        <v>0</v>
       </c>
       <c r="AZ33" s="11">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="BA33" s="11">
-        <v>0</v>
+        <v>-183</v>
       </c>
       <c r="BB33" s="11">
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="34" spans="2:54" x14ac:dyDescent="0.3">
@@ -4118,56 +4118,56 @@
       <c r="AD34" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="AE34" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF34" s="19" t="s">
-        <v>58</v>
+      <c r="AE34" s="19">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="19">
+        <v>0</v>
       </c>
       <c r="AG34" s="19">
-        <v>0</v>
+        <v>-17</v>
       </c>
       <c r="AH34" s="19">
         <v>0</v>
       </c>
       <c r="AI34" s="19">
-        <v>-17</v>
+        <v>0</v>
       </c>
       <c r="AJ34" s="19">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="AK34" s="19">
         <v>0</v>
       </c>
       <c r="AL34" s="19">
+        <v>-33</v>
+      </c>
+      <c r="AM34" s="19">
+        <v>0</v>
+      </c>
+      <c r="AN34" s="19">
+        <v>0</v>
+      </c>
+      <c r="AO34" s="19">
+        <v>0</v>
+      </c>
+      <c r="AP34" s="19">
+        <v>-2</v>
+      </c>
+      <c r="AQ34" s="19">
+        <v>0</v>
+      </c>
+      <c r="AR34" s="19">
+        <v>-1</v>
+      </c>
+      <c r="AS34" s="19">
         <v>-10</v>
       </c>
-      <c r="AM34" s="19">
-        <v>0</v>
-      </c>
-      <c r="AN34" s="19">
-        <v>-33</v>
-      </c>
-      <c r="AO34" s="19">
-        <v>0</v>
-      </c>
-      <c r="AP34" s="19">
-        <v>0</v>
-      </c>
-      <c r="AQ34" s="19">
-        <v>0</v>
-      </c>
-      <c r="AR34" s="19">
-        <v>-2</v>
-      </c>
-      <c r="AS34" s="19">
-        <v>0</v>
-      </c>
       <c r="AT34" s="19">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AU34" s="19">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="AV34" s="19">
         <v>0</v>
@@ -4176,19 +4176,19 @@
         <v>0</v>
       </c>
       <c r="AX34" s="19">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="AY34" s="19">
         <v>0</v>
       </c>
       <c r="AZ34" s="19">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="BA34" s="19">
-        <v>0</v>
+        <v>-183</v>
       </c>
       <c r="BB34" s="19">
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="35" spans="2:54" x14ac:dyDescent="0.3">
@@ -4276,76 +4276,76 @@
         <v>0</v>
       </c>
       <c r="AE35" s="15">
-        <v>0</v>
+        <v>1932</v>
       </c>
       <c r="AF35" s="15">
-        <v>0</v>
+        <v>2130</v>
       </c>
       <c r="AG35" s="15">
-        <v>1932</v>
+        <v>2458</v>
       </c>
       <c r="AH35" s="15">
-        <v>2130</v>
+        <v>2292</v>
       </c>
       <c r="AI35" s="15">
-        <v>2458</v>
+        <v>2742</v>
       </c>
       <c r="AJ35" s="15">
-        <v>2292</v>
+        <v>2882</v>
       </c>
       <c r="AK35" s="15">
-        <v>2742</v>
+        <v>1941</v>
       </c>
       <c r="AL35" s="15">
-        <v>2882</v>
+        <v>2463</v>
       </c>
       <c r="AM35" s="15">
-        <v>1941</v>
+        <v>2560</v>
       </c>
       <c r="AN35" s="15">
-        <v>2463</v>
+        <v>2112</v>
       </c>
       <c r="AO35" s="15">
-        <v>2560</v>
+        <v>2404</v>
       </c>
       <c r="AP35" s="15">
-        <v>2112</v>
+        <v>3771</v>
       </c>
       <c r="AQ35" s="15">
-        <v>2404</v>
+        <v>2245</v>
       </c>
       <c r="AR35" s="15">
-        <v>3771</v>
+        <v>2597</v>
       </c>
       <c r="AS35" s="15">
-        <v>2245</v>
+        <v>2564</v>
       </c>
       <c r="AT35" s="15">
-        <v>2597</v>
+        <v>2218</v>
       </c>
       <c r="AU35" s="15">
-        <v>2564</v>
+        <v>3052</v>
       </c>
       <c r="AV35" s="15">
-        <v>2218</v>
+        <v>3759</v>
       </c>
       <c r="AW35" s="15">
-        <v>3052</v>
+        <v>2414</v>
       </c>
       <c r="AX35" s="15">
-        <v>3758756</v>
+        <v>2772</v>
       </c>
       <c r="AY35" s="15">
-        <v>2414</v>
+        <v>2289</v>
       </c>
       <c r="AZ35" s="15">
-        <v>2766</v>
+        <v>2455</v>
       </c>
       <c r="BA35" s="15">
-        <v>2289</v>
+        <v>2926</v>
       </c>
       <c r="BB35" s="15">
-        <v>2455</v>
+        <v>3186</v>
       </c>
     </row>
     <row r="36" spans="2:54" x14ac:dyDescent="0.3">
@@ -4868,77 +4868,77 @@
       <c r="AD42" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE42" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF42" s="11" t="s">
-        <v>58</v>
+      <c r="AE42" s="11">
+        <v>1191457</v>
+      </c>
+      <c r="AF42" s="11">
+        <v>1355871</v>
       </c>
       <c r="AG42" s="11">
-        <v>1191457</v>
+        <v>1592498</v>
       </c>
       <c r="AH42" s="11">
-        <v>1355871</v>
+        <v>1523931</v>
       </c>
       <c r="AI42" s="11">
-        <v>1592498</v>
+        <v>1819777</v>
       </c>
       <c r="AJ42" s="11">
-        <v>1523931</v>
+        <v>1892779</v>
       </c>
       <c r="AK42" s="11">
-        <v>1819777</v>
+        <v>1193279</v>
       </c>
       <c r="AL42" s="11">
-        <v>1892779</v>
+        <v>1695357</v>
       </c>
       <c r="AM42" s="11">
-        <v>1193279</v>
+        <v>1712597</v>
       </c>
       <c r="AN42" s="11">
-        <v>1695357</v>
+        <v>1392264</v>
       </c>
       <c r="AO42" s="11">
-        <v>1712597</v>
+        <v>1666609</v>
       </c>
       <c r="AP42" s="11">
-        <v>1392264</v>
+        <v>2406247</v>
       </c>
       <c r="AQ42" s="11">
-        <v>1666609</v>
+        <v>1528367</v>
       </c>
       <c r="AR42" s="11">
-        <v>2406247</v>
+        <v>1828344</v>
       </c>
       <c r="AS42" s="11">
-        <v>1528367</v>
+        <v>1741513</v>
       </c>
       <c r="AT42" s="11">
-        <v>1828344</v>
+        <v>1576722</v>
       </c>
       <c r="AU42" s="11">
-        <v>1741513</v>
+        <v>2200510</v>
       </c>
       <c r="AV42" s="11">
-        <v>1414660</v>
+        <v>3184013</v>
       </c>
       <c r="AW42" s="11">
-        <v>2144452</v>
+        <v>2011958</v>
       </c>
       <c r="AX42" s="11">
-        <v>3184013</v>
+        <v>2463859</v>
       </c>
       <c r="AY42" s="11">
-        <v>2011958</v>
+        <v>2101282</v>
       </c>
       <c r="AZ42" s="11">
-        <v>2463859</v>
+        <v>2264156</v>
       </c>
       <c r="BA42" s="11">
-        <v>2101282</v>
+        <v>2882483</v>
       </c>
       <c r="BB42" s="11">
-        <v>2264156</v>
+        <v>3015017</v>
       </c>
     </row>
     <row r="43" spans="2:54" x14ac:dyDescent="0.3">
@@ -5027,47 +5027,47 @@
       <c r="AD43" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AE43" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF43" s="13" t="s">
-        <v>58</v>
+      <c r="AE43" s="13">
+        <v>1141</v>
+      </c>
+      <c r="AF43" s="13">
+        <v>619</v>
       </c>
       <c r="AG43" s="13">
-        <v>1141</v>
+        <v>1458</v>
       </c>
       <c r="AH43" s="13">
-        <v>619</v>
+        <v>762</v>
       </c>
       <c r="AI43" s="13">
-        <v>1458</v>
+        <v>0</v>
       </c>
       <c r="AJ43" s="13">
-        <v>762</v>
+        <v>0</v>
       </c>
       <c r="AK43" s="13">
-        <v>0</v>
+        <v>852</v>
       </c>
       <c r="AL43" s="13">
-        <v>0</v>
+        <v>883</v>
       </c>
       <c r="AM43" s="13">
-        <v>852</v>
+        <v>448</v>
       </c>
       <c r="AN43" s="13">
-        <v>883</v>
+        <v>217</v>
       </c>
       <c r="AO43" s="13">
-        <v>448</v>
+        <v>1009</v>
       </c>
       <c r="AP43" s="13">
-        <v>217</v>
+        <v>583</v>
       </c>
       <c r="AQ43" s="13">
-        <v>1009</v>
+        <v>0</v>
       </c>
       <c r="AR43" s="13">
-        <v>583</v>
+        <v>0</v>
       </c>
       <c r="AS43" s="13">
         <v>0</v>
@@ -5082,13 +5082,13 @@
         <v>0</v>
       </c>
       <c r="AW43" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX43" s="13">
         <v>0</v>
       </c>
       <c r="AY43" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ43" s="13">
         <v>0</v>
@@ -5185,76 +5185,76 @@
         <v>0</v>
       </c>
       <c r="AE44" s="15">
-        <v>0</v>
+        <v>1192598</v>
       </c>
       <c r="AF44" s="15">
-        <v>0</v>
+        <v>1356490</v>
       </c>
       <c r="AG44" s="15">
-        <v>1192598</v>
+        <v>1593956</v>
       </c>
       <c r="AH44" s="15">
-        <v>1356490</v>
+        <v>1524693</v>
       </c>
       <c r="AI44" s="15">
-        <v>1593956</v>
+        <v>1819777</v>
       </c>
       <c r="AJ44" s="15">
-        <v>1524693</v>
+        <v>1892779</v>
       </c>
       <c r="AK44" s="15">
-        <v>1819777</v>
+        <v>1194131</v>
       </c>
       <c r="AL44" s="15">
-        <v>1892779</v>
+        <v>1696240</v>
       </c>
       <c r="AM44" s="15">
-        <v>1194131</v>
+        <v>1713045</v>
       </c>
       <c r="AN44" s="15">
-        <v>1696240</v>
+        <v>1392481</v>
       </c>
       <c r="AO44" s="15">
-        <v>1713045</v>
+        <v>1667618</v>
       </c>
       <c r="AP44" s="15">
-        <v>1392481</v>
+        <v>2406830</v>
       </c>
       <c r="AQ44" s="15">
-        <v>1667618</v>
+        <v>1528367</v>
       </c>
       <c r="AR44" s="15">
-        <v>2406830</v>
+        <v>1828344</v>
       </c>
       <c r="AS44" s="15">
-        <v>1528367</v>
+        <v>1741513</v>
       </c>
       <c r="AT44" s="15">
-        <v>1828344</v>
+        <v>1576722</v>
       </c>
       <c r="AU44" s="15">
-        <v>1741513</v>
+        <v>2200510</v>
       </c>
       <c r="AV44" s="15">
-        <v>1414660</v>
+        <v>3184013</v>
       </c>
       <c r="AW44" s="15">
-        <v>2144452</v>
+        <v>2011959</v>
       </c>
       <c r="AX44" s="15">
-        <v>3184013</v>
+        <v>2463859</v>
       </c>
       <c r="AY44" s="15">
-        <v>2011959</v>
+        <v>2101282</v>
       </c>
       <c r="AZ44" s="15">
-        <v>2463859</v>
+        <v>2264156</v>
       </c>
       <c r="BA44" s="15">
-        <v>2101282</v>
+        <v>2882483</v>
       </c>
       <c r="BB44" s="15">
-        <v>2264156</v>
+        <v>3015017</v>
       </c>
     </row>
     <row r="45" spans="2:54" x14ac:dyDescent="0.3">
@@ -5614,11 +5614,11 @@
       <c r="AD48" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AE48" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF48" s="15" t="s">
-        <v>58</v>
+      <c r="AE48" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF48" s="15">
+        <v>0</v>
       </c>
       <c r="AG48" s="15">
         <v>0</v>
@@ -5830,77 +5830,77 @@
       <c r="AD50" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE50" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF50" s="11" t="s">
-        <v>58</v>
+      <c r="AE50" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF50" s="11">
+        <v>-78</v>
       </c>
       <c r="AG50" s="11">
-        <v>0</v>
+        <v>-5051</v>
       </c>
       <c r="AH50" s="11">
-        <v>-78</v>
+        <v>-90</v>
       </c>
       <c r="AI50" s="11">
-        <v>-5051</v>
+        <v>-4</v>
       </c>
       <c r="AJ50" s="11">
-        <v>-90</v>
+        <v>-6637</v>
       </c>
       <c r="AK50" s="11">
-        <v>-4</v>
+        <v>-24</v>
       </c>
       <c r="AL50" s="11">
-        <v>-6637</v>
+        <v>-28202</v>
       </c>
       <c r="AM50" s="11">
-        <v>-24</v>
+        <v>0</v>
       </c>
       <c r="AN50" s="11">
-        <v>-28202</v>
+        <v>-37</v>
       </c>
       <c r="AO50" s="11">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="AP50" s="11">
-        <v>-37</v>
+        <v>-1637</v>
       </c>
       <c r="AQ50" s="11">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="AR50" s="11">
-        <v>-1637</v>
+        <v>-594</v>
       </c>
       <c r="AS50" s="11">
-        <v>0</v>
+        <v>-10484</v>
       </c>
       <c r="AT50" s="11">
-        <v>-594</v>
+        <v>0</v>
       </c>
       <c r="AU50" s="11">
-        <v>-10484</v>
+        <v>0</v>
       </c>
       <c r="AV50" s="11">
-        <v>0</v>
+        <v>-35</v>
       </c>
       <c r="AW50" s="11">
-        <v>0</v>
+        <v>-14</v>
       </c>
       <c r="AX50" s="11">
-        <v>-35</v>
+        <v>-7134</v>
       </c>
       <c r="AY50" s="11">
-        <v>-14</v>
+        <v>-38</v>
       </c>
       <c r="AZ50" s="11">
-        <v>-7134</v>
+        <v>0</v>
       </c>
       <c r="BA50" s="11">
-        <v>-38</v>
+        <v>-148836</v>
       </c>
       <c r="BB50" s="11">
-        <v>0</v>
+        <v>-3622</v>
       </c>
     </row>
     <row r="51" spans="2:54" x14ac:dyDescent="0.3">
@@ -5989,77 +5989,77 @@
       <c r="AD51" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="AE51" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF51" s="19" t="s">
-        <v>58</v>
+      <c r="AE51" s="19">
+        <v>0</v>
+      </c>
+      <c r="AF51" s="19">
+        <v>-78</v>
       </c>
       <c r="AG51" s="19">
-        <v>0</v>
+        <v>-5051</v>
       </c>
       <c r="AH51" s="19">
-        <v>-78</v>
+        <v>-90</v>
       </c>
       <c r="AI51" s="19">
-        <v>-5051</v>
+        <v>-4</v>
       </c>
       <c r="AJ51" s="19">
-        <v>-90</v>
+        <v>-6637</v>
       </c>
       <c r="AK51" s="19">
-        <v>-4</v>
+        <v>-24</v>
       </c>
       <c r="AL51" s="19">
-        <v>-6637</v>
+        <v>-28202</v>
       </c>
       <c r="AM51" s="19">
-        <v>-24</v>
+        <v>0</v>
       </c>
       <c r="AN51" s="19">
-        <v>-28202</v>
+        <v>-37</v>
       </c>
       <c r="AO51" s="19">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="AP51" s="19">
-        <v>-37</v>
+        <v>-1637</v>
       </c>
       <c r="AQ51" s="19">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="AR51" s="19">
-        <v>-1637</v>
+        <v>-594</v>
       </c>
       <c r="AS51" s="19">
-        <v>0</v>
+        <v>-10484</v>
       </c>
       <c r="AT51" s="19">
-        <v>-594</v>
+        <v>0</v>
       </c>
       <c r="AU51" s="19">
-        <v>-10484</v>
+        <v>0</v>
       </c>
       <c r="AV51" s="19">
-        <v>0</v>
+        <v>-35</v>
       </c>
       <c r="AW51" s="19">
-        <v>0</v>
+        <v>-14</v>
       </c>
       <c r="AX51" s="19">
-        <v>-35</v>
+        <v>-7134</v>
       </c>
       <c r="AY51" s="19">
-        <v>-14</v>
+        <v>-38</v>
       </c>
       <c r="AZ51" s="19">
-        <v>-7134</v>
+        <v>0</v>
       </c>
       <c r="BA51" s="19">
-        <v>-38</v>
+        <v>-148836</v>
       </c>
       <c r="BB51" s="19">
-        <v>0</v>
+        <v>-3622</v>
       </c>
     </row>
     <row r="52" spans="2:54" x14ac:dyDescent="0.3">
@@ -6205,77 +6205,77 @@
       <c r="AD53" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE53" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF53" s="11" t="s">
-        <v>58</v>
+      <c r="AE53" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF53" s="11">
+        <v>-109</v>
       </c>
       <c r="AG53" s="11">
         <v>0</v>
       </c>
       <c r="AH53" s="11">
-        <v>-109</v>
+        <v>-108</v>
       </c>
       <c r="AI53" s="11">
         <v>0</v>
       </c>
       <c r="AJ53" s="11">
-        <v>-108</v>
+        <v>0</v>
       </c>
       <c r="AK53" s="11">
         <v>0</v>
       </c>
       <c r="AL53" s="11">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AM53" s="11">
         <v>0</v>
       </c>
       <c r="AN53" s="11">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AO53" s="11">
         <v>0</v>
       </c>
       <c r="AP53" s="11">
-        <v>0</v>
+        <v>-218</v>
       </c>
       <c r="AQ53" s="11">
         <v>0</v>
       </c>
       <c r="AR53" s="11">
-        <v>-218</v>
+        <v>-38</v>
       </c>
       <c r="AS53" s="11">
         <v>0</v>
       </c>
       <c r="AT53" s="11">
-        <v>-38</v>
+        <v>-148</v>
       </c>
       <c r="AU53" s="11">
-        <v>0</v>
+        <v>-992</v>
       </c>
       <c r="AV53" s="11">
-        <v>-20</v>
+        <v>-2552</v>
       </c>
       <c r="AW53" s="11">
-        <v>-981</v>
+        <v>-663</v>
       </c>
       <c r="AX53" s="11">
-        <v>-2552</v>
+        <v>-747</v>
       </c>
       <c r="AY53" s="11">
-        <v>-663</v>
+        <v>-664</v>
       </c>
       <c r="AZ53" s="11">
-        <v>-747</v>
+        <v>-2136</v>
       </c>
       <c r="BA53" s="11">
-        <v>-664</v>
+        <v>-2432</v>
       </c>
       <c r="BB53" s="11">
-        <v>-2136</v>
+        <v>-4470</v>
       </c>
     </row>
     <row r="54" spans="2:54" x14ac:dyDescent="0.3">
@@ -6363,76 +6363,76 @@
         <v>0</v>
       </c>
       <c r="AE54" s="19">
-        <v>0</v>
+        <v>1192598</v>
       </c>
       <c r="AF54" s="19">
-        <v>0</v>
+        <v>1356303</v>
       </c>
       <c r="AG54" s="19">
-        <v>1192598</v>
+        <v>1588905</v>
       </c>
       <c r="AH54" s="19">
-        <v>1356303</v>
+        <v>1524495</v>
       </c>
       <c r="AI54" s="19">
-        <v>1588905</v>
+        <v>1819773</v>
       </c>
       <c r="AJ54" s="19">
-        <v>1524495</v>
+        <v>1886142</v>
       </c>
       <c r="AK54" s="19">
-        <v>1819773</v>
+        <v>1194107</v>
       </c>
       <c r="AL54" s="19">
-        <v>1886142</v>
+        <v>1668037</v>
       </c>
       <c r="AM54" s="19">
-        <v>1194107</v>
+        <v>1713045</v>
       </c>
       <c r="AN54" s="19">
-        <v>1668037</v>
+        <v>1392444</v>
       </c>
       <c r="AO54" s="19">
-        <v>1713045</v>
+        <v>1667610</v>
       </c>
       <c r="AP54" s="19">
-        <v>1392444</v>
+        <v>2404975</v>
       </c>
       <c r="AQ54" s="19">
-        <v>1667610</v>
+        <v>1528367</v>
       </c>
       <c r="AR54" s="19">
-        <v>2404975</v>
+        <v>1827712</v>
       </c>
       <c r="AS54" s="19">
-        <v>1528367</v>
+        <v>1731029</v>
       </c>
       <c r="AT54" s="19">
-        <v>1827712</v>
+        <v>1576574</v>
       </c>
       <c r="AU54" s="19">
-        <v>1731029</v>
+        <v>2199518</v>
       </c>
       <c r="AV54" s="19">
-        <v>1414640</v>
+        <v>3181426</v>
       </c>
       <c r="AW54" s="19">
-        <v>2143471</v>
+        <v>2011282</v>
       </c>
       <c r="AX54" s="19">
-        <v>3181426</v>
+        <v>2455978</v>
       </c>
       <c r="AY54" s="19">
-        <v>2011282</v>
+        <v>2100580</v>
       </c>
       <c r="AZ54" s="19">
-        <v>2455978</v>
+        <v>2262020</v>
       </c>
       <c r="BA54" s="19">
-        <v>2100580</v>
+        <v>2731215</v>
       </c>
       <c r="BB54" s="19">
-        <v>2262020</v>
+        <v>3006925</v>
       </c>
     </row>
     <row r="55" spans="2:54" x14ac:dyDescent="0.3">
@@ -6955,77 +6955,77 @@
       <c r="AD61" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE61" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF61" s="11" t="s">
-        <v>58</v>
+      <c r="AE61" s="11">
+        <v>617335233</v>
+      </c>
+      <c r="AF61" s="11">
+        <v>637135568</v>
       </c>
       <c r="AG61" s="11">
-        <v>617335233</v>
+        <v>644355941</v>
       </c>
       <c r="AH61" s="11">
-        <v>637135568</v>
+        <v>665452873</v>
       </c>
       <c r="AI61" s="11">
-        <v>644355941</v>
+        <v>663560071</v>
       </c>
       <c r="AJ61" s="11">
-        <v>665452873</v>
+        <v>654401911</v>
       </c>
       <c r="AK61" s="11">
-        <v>663560071</v>
+        <v>615457101</v>
       </c>
       <c r="AL61" s="11">
-        <v>654401911</v>
+        <v>679847858</v>
       </c>
       <c r="AM61" s="11">
-        <v>615457101</v>
+        <v>669182651</v>
       </c>
       <c r="AN61" s="11">
-        <v>679847858</v>
+        <v>659472579</v>
       </c>
       <c r="AO61" s="11">
-        <v>669182651</v>
+        <v>693923972</v>
       </c>
       <c r="AP61" s="11">
-        <v>659472579</v>
+        <v>637923383</v>
       </c>
       <c r="AQ61" s="11">
-        <v>693923972</v>
+        <v>680746450</v>
       </c>
       <c r="AR61" s="11">
-        <v>637923383</v>
+        <v>703885502</v>
       </c>
       <c r="AS61" s="11">
-        <v>680746450</v>
+        <v>676554367</v>
       </c>
       <c r="AT61" s="11">
-        <v>703885502</v>
+        <v>654541025</v>
       </c>
       <c r="AU61" s="11">
-        <v>676562706</v>
+        <v>706971787</v>
       </c>
       <c r="AV61" s="11">
-        <v>637722868</v>
+        <v>730881971</v>
       </c>
       <c r="AW61" s="11">
-        <v>702554939</v>
+        <v>833323186</v>
       </c>
       <c r="AX61" s="11">
-        <v>847092</v>
+        <v>888465095</v>
       </c>
       <c r="AY61" s="11">
-        <v>833323186</v>
+        <v>918136431</v>
       </c>
       <c r="AZ61" s="11">
-        <v>888672920</v>
+        <v>922409670</v>
       </c>
       <c r="BA61" s="11">
-        <v>918136464</v>
+        <v>927171347</v>
       </c>
       <c r="BB61" s="11">
-        <v>922409670</v>
+        <v>945439807</v>
       </c>
     </row>
     <row r="62" spans="2:54" x14ac:dyDescent="0.3">
@@ -7114,48 +7114,48 @@
       <c r="AD62" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AE62" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF62" s="13" t="s">
-        <v>58</v>
+      <c r="AE62" s="13">
+        <v>570500000</v>
+      </c>
+      <c r="AF62" s="13">
+        <v>353512279</v>
       </c>
       <c r="AG62" s="13">
-        <v>570500000</v>
+        <v>453358209</v>
       </c>
       <c r="AH62" s="13">
-        <v>353512279</v>
-      </c>
-      <c r="AI62" s="13">
-        <v>453358209</v>
-      </c>
-      <c r="AJ62" s="13">
         <v>473586078</v>
       </c>
-      <c r="AK62" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL62" s="13" t="s">
-        <v>58</v>
+      <c r="AI62" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ62" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK62" s="13">
+        <v>474123539</v>
+      </c>
+      <c r="AL62" s="13">
+        <v>472192513</v>
       </c>
       <c r="AM62" s="13">
-        <v>474123539</v>
+        <v>472573840</v>
       </c>
       <c r="AN62" s="13">
-        <v>472192513</v>
+        <v>474835886</v>
       </c>
       <c r="AO62" s="13">
-        <v>472573840</v>
+        <v>473486626</v>
       </c>
       <c r="AP62" s="13">
-        <v>474835886</v>
-      </c>
-      <c r="AQ62" s="13">
-        <v>473486626</v>
-      </c>
-      <c r="AR62" s="13">
         <v>473983740</v>
       </c>
+      <c r="AQ62" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR62" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AS62" s="13" t="s">
         <v>58</v>
       </c>
@@ -7168,14 +7168,14 @@
       <c r="AV62" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AW62" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX62" s="13" t="s">
-        <v>58</v>
+      <c r="AW62" s="13">
+        <v>500000000</v>
+      </c>
+      <c r="AX62" s="13">
+        <v>0</v>
       </c>
       <c r="AY62" s="13">
-        <v>500000000</v>
+        <v>-500000000</v>
       </c>
       <c r="AZ62" s="13" t="s">
         <v>58</v>

--- a/database/industries/lastic/pekavir/product/monthly_seprated.xlsx
+++ b/database/industries/lastic/pekavir/product/monthly_seprated.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="84">
   <si>
     <t xml:space="preserve">Pouya Finance</t>
   </si>
@@ -81,7 +81,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -100,7 +100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/11</t>
+      <t xml:space="preserve">1397/12</t>
     </r>
   </si>
   <si>
@@ -121,7 +121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -140,7 +140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/12</t>
+      <t xml:space="preserve">1398/01</t>
     </r>
   </si>
   <si>
@@ -161,7 +161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -180,7 +180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/01</t>
+      <t xml:space="preserve">1398/02</t>
     </r>
   </si>
   <si>
@@ -201,7 +201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -220,7 +220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/02</t>
+      <t xml:space="preserve">1398/03</t>
     </r>
   </si>
   <si>
@@ -241,7 +241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -260,7 +260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/03</t>
+      <t xml:space="preserve">1398/04</t>
     </r>
   </si>
   <si>
@@ -281,7 +281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -300,7 +300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/04</t>
+      <t xml:space="preserve">1398/05</t>
     </r>
   </si>
   <si>
@@ -321,7 +321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -340,7 +340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/05</t>
+      <t xml:space="preserve">1398/06</t>
     </r>
   </si>
   <si>
@@ -361,7 +361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -380,7 +380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/06</t>
+      <t xml:space="preserve">1398/07</t>
     </r>
   </si>
   <si>
@@ -401,7 +401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -420,7 +420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/07</t>
+      <t xml:space="preserve">1398/08</t>
     </r>
   </si>
   <si>
@@ -441,7 +441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -460,7 +460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/08</t>
+      <t xml:space="preserve">1398/09</t>
     </r>
   </si>
   <si>
@@ -481,7 +481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -500,7 +500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/09</t>
+      <t xml:space="preserve">1398/10</t>
     </r>
   </si>
   <si>
@@ -521,7 +521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -540,7 +540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/10</t>
+      <t xml:space="preserve">1398/11</t>
     </r>
   </si>
   <si>
@@ -561,7 +561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -580,7 +580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/11</t>
+      <t xml:space="preserve">1398/12</t>
     </r>
   </si>
   <si>
@@ -601,7 +601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -620,7 +620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/12</t>
+      <t xml:space="preserve">1399/01</t>
     </r>
   </si>
   <si>
@@ -641,7 +641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -660,7 +660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/01</t>
+      <t xml:space="preserve">1399/02</t>
     </r>
   </si>
   <si>
@@ -681,7 +681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -700,7 +700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/02</t>
+      <t xml:space="preserve">1399/03</t>
     </r>
   </si>
   <si>
@@ -721,7 +721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -740,7 +740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/03</t>
+      <t xml:space="preserve">1399/04</t>
     </r>
   </si>
   <si>
@@ -761,7 +761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -780,7 +780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/04</t>
+      <t xml:space="preserve">1399/05</t>
     </r>
   </si>
   <si>
@@ -801,7 +801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -820,7 +820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/05</t>
+      <t xml:space="preserve">1399/06</t>
     </r>
   </si>
   <si>
@@ -841,7 +841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -860,7 +860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/06</t>
+      <t xml:space="preserve">1399/07</t>
     </r>
   </si>
   <si>
@@ -881,7 +881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -900,7 +900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/07</t>
+      <t xml:space="preserve">1399/08</t>
     </r>
   </si>
   <si>
@@ -921,7 +921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -940,7 +940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/08</t>
+      <t xml:space="preserve">1399/09</t>
     </r>
   </si>
   <si>
@@ -961,7 +961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -980,7 +980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/09</t>
+      <t xml:space="preserve">1399/10</t>
     </r>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1020,7 +1020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/10</t>
+      <t xml:space="preserve">1399/11</t>
     </r>
   </si>
   <si>
@@ -1041,7 +1041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1060,7 +1060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/11</t>
+      <t xml:space="preserve">1399/12</t>
     </r>
   </si>
   <si>
@@ -1081,7 +1081,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1100,7 +1100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/12</t>
+      <t xml:space="preserve">1400/01</t>
     </r>
   </si>
   <si>
@@ -1121,7 +1121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1140,7 +1140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/01</t>
+      <t xml:space="preserve">1400/02</t>
     </r>
   </si>
   <si>
@@ -1161,7 +1161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1180,7 +1180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/02</t>
+      <t xml:space="preserve">1400/03</t>
     </r>
   </si>
   <si>
@@ -1201,7 +1201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1220,7 +1220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/03</t>
+      <t xml:space="preserve">1400/04</t>
     </r>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1260,7 +1260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/04</t>
+      <t xml:space="preserve">1400/05</t>
     </r>
   </si>
   <si>
@@ -1281,7 +1281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1300,7 +1300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/05</t>
+      <t xml:space="preserve">1400/06</t>
     </r>
   </si>
   <si>
@@ -1321,7 +1321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1340,7 +1340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/06</t>
+      <t xml:space="preserve">1400/07</t>
     </r>
   </si>
   <si>
@@ -1361,7 +1361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1380,7 +1380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/07</t>
+      <t xml:space="preserve">1400/08</t>
     </r>
   </si>
   <si>
@@ -1401,7 +1401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1420,7 +1420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/08</t>
+      <t xml:space="preserve">1400/09</t>
     </r>
   </si>
   <si>
@@ -1441,7 +1441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1460,7 +1460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/09</t>
+      <t xml:space="preserve">1400/10</t>
     </r>
   </si>
   <si>
@@ -1481,7 +1481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1500,7 +1500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/10</t>
+      <t xml:space="preserve">1400/11</t>
     </r>
   </si>
   <si>
@@ -1521,7 +1521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1540,7 +1540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/11</t>
+      <t xml:space="preserve">1400/12</t>
     </r>
   </si>
   <si>
@@ -1561,7 +1561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1580,7 +1580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/12</t>
+      <t xml:space="preserve">1401/01</t>
     </r>
   </si>
   <si>
@@ -1601,7 +1601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1620,7 +1620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/01</t>
+      <t xml:space="preserve">1401/02</t>
     </r>
   </si>
   <si>
@@ -1641,7 +1641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1660,7 +1660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/02</t>
+      <t xml:space="preserve">1401/03</t>
     </r>
   </si>
   <si>
@@ -1681,7 +1681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1700,7 +1700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/03</t>
+      <t xml:space="preserve">1401/04</t>
     </r>
   </si>
   <si>
@@ -1721,7 +1721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1740,7 +1740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/04</t>
+      <t xml:space="preserve">1401/05</t>
     </r>
   </si>
   <si>
@@ -1761,7 +1761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1780,7 +1780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/05</t>
+      <t xml:space="preserve">1401/06</t>
     </r>
   </si>
   <si>
@@ -1801,7 +1801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1820,7 +1820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/06</t>
+      <t xml:space="preserve">1401/07</t>
     </r>
   </si>
   <si>
@@ -1841,7 +1841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1860,7 +1860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/07</t>
+      <t xml:space="preserve">1401/08</t>
     </r>
   </si>
   <si>
@@ -1881,7 +1881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1900,7 +1900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/08</t>
+      <t xml:space="preserve">1401/09</t>
     </r>
   </si>
   <si>
@@ -1921,7 +1921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1940,7 +1940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/09</t>
+      <t xml:space="preserve">1401/10</t>
     </r>
   </si>
   <si>
@@ -1961,7 +1961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1980,7 +1980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/10</t>
+      <t xml:space="preserve">1401/11</t>
     </r>
   </si>
   <si>
@@ -2001,7 +2001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -2020,7 +2020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/11</t>
+      <t xml:space="preserve">1401/12</t>
     </r>
   </si>
   <si>
@@ -2041,7 +2041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -2060,7 +2060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/12</t>
+      <t xml:space="preserve">1402/01</t>
     </r>
   </si>
   <si>
@@ -3306,89 +3306,89 @@
       <c r="Z11" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AA11" s="13" t="s">
-        <v>58</v>
+      <c r="AA11" s="13" t="n">
+        <v>2412</v>
       </c>
       <c r="AB11" s="13" t="n">
-        <v>2412</v>
+        <v>2286</v>
       </c>
       <c r="AC11" s="13" t="n">
-        <v>2286</v>
+        <v>2531</v>
       </c>
       <c r="AD11" s="13" t="n">
-        <v>2531</v>
+        <v>2673</v>
       </c>
       <c r="AE11" s="13" t="n">
-        <v>2673</v>
+        <v>2768</v>
       </c>
       <c r="AF11" s="13" t="n">
-        <v>2768</v>
+        <v>1862</v>
       </c>
       <c r="AG11" s="13" t="n">
-        <v>1862</v>
+        <v>2573</v>
       </c>
       <c r="AH11" s="13" t="n">
-        <v>2573</v>
+        <v>2495</v>
       </c>
       <c r="AI11" s="13" t="n">
-        <v>2495</v>
+        <v>2343</v>
       </c>
       <c r="AJ11" s="13" t="n">
-        <v>2343</v>
+        <v>2157</v>
       </c>
       <c r="AK11" s="13" t="n">
-        <v>2157</v>
+        <v>2742</v>
       </c>
       <c r="AL11" s="13" t="n">
-        <v>2742</v>
+        <v>2754</v>
       </c>
       <c r="AM11" s="13" t="n">
-        <v>2754</v>
+        <v>2841</v>
       </c>
       <c r="AN11" s="13" t="n">
-        <v>2841</v>
+        <v>2631</v>
       </c>
       <c r="AO11" s="13" t="n">
-        <v>2631</v>
+        <v>2674</v>
       </c>
       <c r="AP11" s="13" t="n">
-        <v>2674</v>
+        <v>2823</v>
       </c>
       <c r="AQ11" s="13" t="n">
-        <v>2823</v>
+        <v>2594</v>
       </c>
       <c r="AR11" s="13" t="n">
-        <v>2594</v>
+        <v>2989</v>
       </c>
       <c r="AS11" s="13" t="n">
-        <v>2989</v>
+        <v>2732</v>
       </c>
       <c r="AT11" s="13" t="n">
-        <v>2732</v>
+        <v>2746</v>
       </c>
       <c r="AU11" s="13" t="n">
-        <v>2746</v>
+        <v>2355</v>
       </c>
       <c r="AV11" s="13" t="n">
-        <v>2355</v>
+        <v>2656</v>
       </c>
       <c r="AW11" s="13" t="n">
-        <v>2656</v>
+        <v>2696</v>
       </c>
       <c r="AX11" s="13" t="n">
-        <v>2696</v>
+        <v>2700</v>
       </c>
       <c r="AY11" s="13" t="n">
-        <v>2700</v>
+        <v>2665</v>
       </c>
       <c r="AZ11" s="13" t="n">
-        <v>2665</v>
+        <v>2926</v>
       </c>
       <c r="BA11" s="13" t="n">
-        <v>2926</v>
+        <v>2956</v>
       </c>
       <c r="BB11" s="13" t="n">
-        <v>2956</v>
+        <v>3221</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3465,53 +3465,53 @@
       <c r="Z12" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AA12" s="16" t="s">
-        <v>58</v>
+      <c r="AA12" s="16" t="n">
+        <v>1</v>
       </c>
       <c r="AB12" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH12" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK12" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="AC12" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG12" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH12" s="16" t="n">
-        <v>3</v>
-      </c>
-      <c r="AI12" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ12" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK12" s="16" t="n">
-        <v>2</v>
-      </c>
       <c r="AL12" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM12" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN12" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO12" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP12" s="16" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AM12" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN12" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO12" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP12" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AQ12" s="16" t="n">
         <v>0</v>
@@ -3543,8 +3543,8 @@
       <c r="AZ12" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="BA12" s="16" t="n">
-        <v>0</v>
+      <c r="BA12" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="BB12" s="16" t="s">
         <v>58</v>
@@ -3623,88 +3623,88 @@
         <v>0</v>
       </c>
       <c r="AA13" s="18" t="n">
-        <v>0</v>
+        <v>2413</v>
       </c>
       <c r="AB13" s="18" t="n">
-        <v>2413</v>
+        <v>2286</v>
       </c>
       <c r="AC13" s="18" t="n">
-        <v>2286</v>
+        <v>2531</v>
       </c>
       <c r="AD13" s="18" t="n">
-        <v>2531</v>
+        <v>2673</v>
       </c>
       <c r="AE13" s="18" t="n">
-        <v>2673</v>
+        <v>2768</v>
       </c>
       <c r="AF13" s="18" t="n">
-        <v>2768</v>
+        <v>1862</v>
       </c>
       <c r="AG13" s="18" t="n">
-        <v>1862</v>
+        <v>2575</v>
       </c>
       <c r="AH13" s="18" t="n">
-        <v>2575</v>
+        <v>2495</v>
       </c>
       <c r="AI13" s="18" t="n">
-        <v>2495</v>
+        <v>2343</v>
       </c>
       <c r="AJ13" s="18" t="n">
-        <v>2343</v>
+        <v>2159</v>
       </c>
       <c r="AK13" s="18" t="n">
-        <v>2159</v>
+        <v>2743</v>
       </c>
       <c r="AL13" s="18" t="n">
-        <v>2743</v>
+        <v>2754</v>
       </c>
       <c r="AM13" s="18" t="n">
-        <v>2754</v>
+        <v>2841</v>
       </c>
       <c r="AN13" s="18" t="n">
-        <v>2841</v>
+        <v>2631</v>
       </c>
       <c r="AO13" s="18" t="n">
-        <v>2631</v>
+        <v>2674</v>
       </c>
       <c r="AP13" s="18" t="n">
-        <v>2674</v>
+        <v>2823</v>
       </c>
       <c r="AQ13" s="18" t="n">
-        <v>2823</v>
+        <v>2594</v>
       </c>
       <c r="AR13" s="18" t="n">
-        <v>2594</v>
+        <v>2989</v>
       </c>
       <c r="AS13" s="18" t="n">
-        <v>2989</v>
+        <v>2732</v>
       </c>
       <c r="AT13" s="18" t="n">
-        <v>2732</v>
+        <v>2746</v>
       </c>
       <c r="AU13" s="18" t="n">
-        <v>2746</v>
+        <v>2355</v>
       </c>
       <c r="AV13" s="18" t="n">
-        <v>2355</v>
+        <v>2656</v>
       </c>
       <c r="AW13" s="18" t="n">
-        <v>2656</v>
+        <v>2696</v>
       </c>
       <c r="AX13" s="18" t="n">
-        <v>2696</v>
+        <v>2700</v>
       </c>
       <c r="AY13" s="18" t="n">
-        <v>2700</v>
+        <v>2665</v>
       </c>
       <c r="AZ13" s="18" t="n">
-        <v>2665</v>
+        <v>2926</v>
       </c>
       <c r="BA13" s="18" t="n">
-        <v>2926</v>
+        <v>2956</v>
       </c>
       <c r="BB13" s="18" t="n">
-        <v>2956</v>
+        <v>3221</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3910,8 +3910,8 @@
       <c r="AX15" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AY15" s="13" t="s">
-        <v>58</v>
+      <c r="AY15" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AZ15" s="13" t="n">
         <v>0</v>
@@ -4209,8 +4209,8 @@
       <c r="Z18" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="AA18" s="18" t="s">
-        <v>58</v>
+      <c r="AA18" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AB18" s="18" t="n">
         <v>0</v>
@@ -4367,88 +4367,88 @@
         <v>0</v>
       </c>
       <c r="AA19" s="20" t="n">
-        <v>0</v>
+        <v>2413</v>
       </c>
       <c r="AB19" s="20" t="n">
-        <v>2413</v>
+        <v>2286</v>
       </c>
       <c r="AC19" s="20" t="n">
-        <v>2286</v>
+        <v>2531</v>
       </c>
       <c r="AD19" s="20" t="n">
-        <v>2531</v>
+        <v>2673</v>
       </c>
       <c r="AE19" s="20" t="n">
-        <v>2673</v>
+        <v>2768</v>
       </c>
       <c r="AF19" s="20" t="n">
-        <v>2768</v>
+        <v>1862</v>
       </c>
       <c r="AG19" s="20" t="n">
-        <v>1862</v>
+        <v>2575</v>
       </c>
       <c r="AH19" s="20" t="n">
-        <v>2575</v>
+        <v>2495</v>
       </c>
       <c r="AI19" s="20" t="n">
-        <v>2495</v>
+        <v>2343</v>
       </c>
       <c r="AJ19" s="20" t="n">
-        <v>2343</v>
+        <v>2159</v>
       </c>
       <c r="AK19" s="20" t="n">
-        <v>2159</v>
+        <v>2743</v>
       </c>
       <c r="AL19" s="20" t="n">
-        <v>2743</v>
+        <v>2754</v>
       </c>
       <c r="AM19" s="20" t="n">
-        <v>2754</v>
+        <v>2841</v>
       </c>
       <c r="AN19" s="20" t="n">
-        <v>2841</v>
+        <v>2631</v>
       </c>
       <c r="AO19" s="20" t="n">
-        <v>2631</v>
+        <v>2674</v>
       </c>
       <c r="AP19" s="20" t="n">
-        <v>2674</v>
+        <v>2823</v>
       </c>
       <c r="AQ19" s="20" t="n">
-        <v>2823</v>
+        <v>2594</v>
       </c>
       <c r="AR19" s="20" t="n">
-        <v>2594</v>
+        <v>2989</v>
       </c>
       <c r="AS19" s="20" t="n">
-        <v>2989</v>
+        <v>2732</v>
       </c>
       <c r="AT19" s="20" t="n">
-        <v>2732</v>
+        <v>2746</v>
       </c>
       <c r="AU19" s="20" t="n">
-        <v>2746</v>
+        <v>2355</v>
       </c>
       <c r="AV19" s="20" t="n">
-        <v>2355</v>
+        <v>2656</v>
       </c>
       <c r="AW19" s="20" t="n">
-        <v>2656</v>
+        <v>2696</v>
       </c>
       <c r="AX19" s="20" t="n">
-        <v>2696</v>
+        <v>2700</v>
       </c>
       <c r="AY19" s="20" t="n">
-        <v>2700</v>
+        <v>2665</v>
       </c>
       <c r="AZ19" s="20" t="n">
-        <v>2665</v>
+        <v>2926</v>
       </c>
       <c r="BA19" s="20" t="n">
-        <v>2926</v>
+        <v>2956</v>
       </c>
       <c r="BB19" s="20" t="n">
-        <v>2956</v>
+        <v>3221</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4959,89 +4959,89 @@
       <c r="Z26" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AA26" s="13" t="s">
-        <v>58</v>
+      <c r="AA26" s="13" t="n">
+        <v>1930</v>
       </c>
       <c r="AB26" s="13" t="n">
-        <v>1930</v>
+        <v>2128</v>
       </c>
       <c r="AC26" s="13" t="n">
-        <v>2128</v>
+        <v>2471</v>
       </c>
       <c r="AD26" s="13" t="n">
-        <v>2471</v>
+        <v>2290</v>
       </c>
       <c r="AE26" s="13" t="n">
-        <v>2290</v>
+        <v>2742</v>
       </c>
       <c r="AF26" s="13" t="n">
-        <v>2742</v>
+        <v>2892</v>
       </c>
       <c r="AG26" s="13" t="n">
-        <v>2892</v>
+        <v>1939</v>
       </c>
       <c r="AH26" s="13" t="n">
-        <v>1939</v>
+        <v>2494</v>
       </c>
       <c r="AI26" s="13" t="n">
-        <v>2494</v>
+        <v>2559</v>
       </c>
       <c r="AJ26" s="13" t="n">
-        <v>2559</v>
+        <v>2111</v>
       </c>
       <c r="AK26" s="13" t="n">
-        <v>2111</v>
+        <v>2402</v>
       </c>
       <c r="AL26" s="13" t="n">
-        <v>2402</v>
+        <v>3772</v>
       </c>
       <c r="AM26" s="13" t="n">
-        <v>3772</v>
+        <v>2245</v>
       </c>
       <c r="AN26" s="13" t="n">
-        <v>2245</v>
+        <v>2598</v>
       </c>
       <c r="AO26" s="13" t="n">
-        <v>2598</v>
+        <v>2574</v>
       </c>
       <c r="AP26" s="13" t="n">
-        <v>2574</v>
+        <v>2218</v>
       </c>
       <c r="AQ26" s="13" t="n">
-        <v>2218</v>
+        <v>3052</v>
       </c>
       <c r="AR26" s="13" t="n">
-        <v>3052</v>
+        <v>3758756</v>
       </c>
       <c r="AS26" s="13" t="n">
-        <v>3758756</v>
+        <v>2414</v>
       </c>
       <c r="AT26" s="13" t="n">
-        <v>2414</v>
+        <v>2773</v>
       </c>
       <c r="AU26" s="13" t="n">
-        <v>2773</v>
+        <v>2289</v>
       </c>
       <c r="AV26" s="13" t="n">
-        <v>2289</v>
+        <v>2455</v>
       </c>
       <c r="AW26" s="13" t="n">
-        <v>2455</v>
+        <v>3112</v>
       </c>
       <c r="AX26" s="13" t="n">
-        <v>3112</v>
+        <v>3219</v>
       </c>
       <c r="AY26" s="13" t="n">
-        <v>3219</v>
+        <v>2131</v>
       </c>
       <c r="AZ26" s="13" t="n">
-        <v>2131</v>
+        <v>2744</v>
       </c>
       <c r="BA26" s="13" t="n">
-        <v>2744</v>
+        <v>2803</v>
       </c>
       <c r="BB26" s="13" t="n">
-        <v>2803</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5118,53 +5118,53 @@
       <c r="Z27" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AA27" s="16" t="s">
-        <v>58</v>
+      <c r="AA27" s="16" t="n">
+        <v>2</v>
       </c>
       <c r="AB27" s="16" t="n">
         <v>2</v>
       </c>
       <c r="AC27" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD27" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="AD27" s="16" t="n">
-        <v>3</v>
-      </c>
       <c r="AE27" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG27" s="16" t="n">
         <v>2</v>
-      </c>
-      <c r="AF27" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG27" s="16" t="n">
-        <v>0</v>
       </c>
       <c r="AH27" s="16" t="n">
         <v>2</v>
       </c>
       <c r="AI27" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ27" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK27" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="AJ27" s="16" t="n">
+      <c r="AL27" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="AK27" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL27" s="16" t="n">
-        <v>2</v>
-      </c>
-      <c r="AM27" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN27" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO27" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP27" s="16" t="s">
-        <v>58</v>
+      <c r="AM27" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN27" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO27" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP27" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AQ27" s="16" t="n">
         <v>0</v>
@@ -5196,8 +5196,8 @@
       <c r="AZ27" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="BA27" s="16" t="n">
-        <v>0</v>
+      <c r="BA27" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="BB27" s="16" t="s">
         <v>58</v>
@@ -5276,88 +5276,88 @@
         <v>0</v>
       </c>
       <c r="AA28" s="18" t="n">
-        <v>0</v>
+        <v>1932</v>
       </c>
       <c r="AB28" s="18" t="n">
-        <v>1932</v>
+        <v>2130</v>
       </c>
       <c r="AC28" s="18" t="n">
-        <v>2130</v>
+        <v>2475</v>
       </c>
       <c r="AD28" s="18" t="n">
-        <v>2475</v>
+        <v>2292</v>
       </c>
       <c r="AE28" s="18" t="n">
-        <v>2292</v>
+        <v>2742</v>
       </c>
       <c r="AF28" s="18" t="n">
-        <v>2742</v>
+        <v>2892</v>
       </c>
       <c r="AG28" s="18" t="n">
-        <v>2892</v>
+        <v>1941</v>
       </c>
       <c r="AH28" s="18" t="n">
-        <v>1941</v>
+        <v>2496</v>
       </c>
       <c r="AI28" s="18" t="n">
-        <v>2496</v>
+        <v>2560</v>
       </c>
       <c r="AJ28" s="18" t="n">
-        <v>2560</v>
+        <v>2112</v>
       </c>
       <c r="AK28" s="18" t="n">
-        <v>2112</v>
+        <v>2404</v>
       </c>
       <c r="AL28" s="18" t="n">
-        <v>2404</v>
+        <v>3773</v>
       </c>
       <c r="AM28" s="18" t="n">
-        <v>3773</v>
+        <v>2245</v>
       </c>
       <c r="AN28" s="18" t="n">
-        <v>2245</v>
+        <v>2598</v>
       </c>
       <c r="AO28" s="18" t="n">
-        <v>2598</v>
+        <v>2574</v>
       </c>
       <c r="AP28" s="18" t="n">
-        <v>2574</v>
+        <v>2218</v>
       </c>
       <c r="AQ28" s="18" t="n">
-        <v>2218</v>
+        <v>3052</v>
       </c>
       <c r="AR28" s="18" t="n">
-        <v>3052</v>
+        <v>3758756</v>
       </c>
       <c r="AS28" s="18" t="n">
-        <v>3758756</v>
+        <v>2414</v>
       </c>
       <c r="AT28" s="18" t="n">
-        <v>2414</v>
+        <v>2773</v>
       </c>
       <c r="AU28" s="18" t="n">
-        <v>2773</v>
+        <v>2289</v>
       </c>
       <c r="AV28" s="18" t="n">
-        <v>2289</v>
+        <v>2455</v>
       </c>
       <c r="AW28" s="18" t="n">
-        <v>2455</v>
+        <v>3112</v>
       </c>
       <c r="AX28" s="18" t="n">
-        <v>3112</v>
+        <v>3219</v>
       </c>
       <c r="AY28" s="18" t="n">
-        <v>3219</v>
+        <v>2131</v>
       </c>
       <c r="AZ28" s="18" t="n">
-        <v>2131</v>
+        <v>2744</v>
       </c>
       <c r="BA28" s="18" t="n">
-        <v>2744</v>
+        <v>2803</v>
       </c>
       <c r="BB28" s="18" t="n">
-        <v>2803</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5563,8 +5563,8 @@
       <c r="AX30" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AY30" s="13" t="s">
-        <v>58</v>
+      <c r="AY30" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AZ30" s="13" t="n">
         <v>0</v>
@@ -5862,8 +5862,8 @@
       <c r="Z33" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="AA33" s="18" t="s">
-        <v>58</v>
+      <c r="AA33" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AB33" s="18" t="n">
         <v>0</v>
@@ -6078,53 +6078,53 @@
       <c r="Z35" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AA35" s="13" t="s">
-        <v>58</v>
+      <c r="AA35" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AB35" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AC35" s="13" t="n">
-        <v>0</v>
+        <v>-17</v>
       </c>
       <c r="AD35" s="13" t="n">
-        <v>-17</v>
+        <v>0</v>
       </c>
       <c r="AE35" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AF35" s="13" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="AG35" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH35" s="13" t="n">
+        <v>-33</v>
+      </c>
+      <c r="AI35" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ35" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK35" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL35" s="13" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AM35" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN35" s="13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AO35" s="13" t="n">
         <v>-10</v>
       </c>
-      <c r="AH35" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI35" s="13" t="n">
-        <v>-33</v>
-      </c>
-      <c r="AJ35" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK35" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL35" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM35" s="13" t="n">
-        <v>-2</v>
-      </c>
-      <c r="AN35" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO35" s="13" t="n">
-        <v>-1</v>
-      </c>
       <c r="AP35" s="13" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="AQ35" s="13" t="n">
         <v>0</v>
@@ -6132,35 +6132,35 @@
       <c r="AR35" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AS35" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT35" s="13" t="s">
-        <v>58</v>
+      <c r="AS35" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT35" s="13" t="n">
+        <v>-6</v>
       </c>
       <c r="AU35" s="13" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="AV35" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AW35" s="13" t="n">
-        <v>0</v>
+        <v>-183</v>
       </c>
       <c r="AX35" s="13" t="n">
-        <v>-183</v>
+        <v>-3</v>
       </c>
       <c r="AY35" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ35" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA35" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB35" s="13" t="n">
         <v>-3</v>
-      </c>
-      <c r="AZ35" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA35" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB35" s="13" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6235,53 +6235,53 @@
       <c r="Z36" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="AA36" s="20" t="s">
-        <v>58</v>
+      <c r="AA36" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="AB36" s="20" t="n">
         <v>0</v>
       </c>
       <c r="AC36" s="20" t="n">
-        <v>0</v>
+        <v>-17</v>
       </c>
       <c r="AD36" s="20" t="n">
-        <v>-17</v>
+        <v>0</v>
       </c>
       <c r="AE36" s="20" t="n">
         <v>0</v>
       </c>
       <c r="AF36" s="20" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="AG36" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH36" s="20" t="n">
+        <v>-33</v>
+      </c>
+      <c r="AI36" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ36" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK36" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL36" s="20" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AM36" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN36" s="20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AO36" s="20" t="n">
         <v>-10</v>
       </c>
-      <c r="AH36" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI36" s="20" t="n">
-        <v>-33</v>
-      </c>
-      <c r="AJ36" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK36" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL36" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM36" s="20" t="n">
-        <v>-2</v>
-      </c>
-      <c r="AN36" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO36" s="20" t="n">
-        <v>-1</v>
-      </c>
       <c r="AP36" s="20" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="AQ36" s="20" t="n">
         <v>0</v>
@@ -6293,31 +6293,31 @@
         <v>0</v>
       </c>
       <c r="AT36" s="20" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="AU36" s="20" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="AV36" s="20" t="n">
         <v>0</v>
       </c>
       <c r="AW36" s="20" t="n">
-        <v>0</v>
+        <v>-183</v>
       </c>
       <c r="AX36" s="20" t="n">
-        <v>-183</v>
+        <v>-3</v>
       </c>
       <c r="AY36" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ36" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA36" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB36" s="20" t="n">
         <v>-3</v>
-      </c>
-      <c r="AZ36" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA36" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB36" s="20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6393,88 +6393,88 @@
         <v>0</v>
       </c>
       <c r="AA37" s="18" t="n">
-        <v>0</v>
+        <v>1932</v>
       </c>
       <c r="AB37" s="18" t="n">
-        <v>1932</v>
+        <v>2130</v>
       </c>
       <c r="AC37" s="18" t="n">
-        <v>2130</v>
+        <v>2458</v>
       </c>
       <c r="AD37" s="18" t="n">
-        <v>2458</v>
+        <v>2292</v>
       </c>
       <c r="AE37" s="18" t="n">
-        <v>2292</v>
+        <v>2742</v>
       </c>
       <c r="AF37" s="18" t="n">
-        <v>2742</v>
+        <v>2882</v>
       </c>
       <c r="AG37" s="18" t="n">
-        <v>2882</v>
+        <v>1941</v>
       </c>
       <c r="AH37" s="18" t="n">
-        <v>1941</v>
+        <v>2463</v>
       </c>
       <c r="AI37" s="18" t="n">
-        <v>2463</v>
+        <v>2560</v>
       </c>
       <c r="AJ37" s="18" t="n">
-        <v>2560</v>
+        <v>2112</v>
       </c>
       <c r="AK37" s="18" t="n">
-        <v>2112</v>
+        <v>2404</v>
       </c>
       <c r="AL37" s="18" t="n">
-        <v>2404</v>
+        <v>3771</v>
       </c>
       <c r="AM37" s="18" t="n">
-        <v>3771</v>
+        <v>2245</v>
       </c>
       <c r="AN37" s="18" t="n">
-        <v>2245</v>
+        <v>2597</v>
       </c>
       <c r="AO37" s="18" t="n">
-        <v>2597</v>
+        <v>2564</v>
       </c>
       <c r="AP37" s="18" t="n">
-        <v>2564</v>
+        <v>2218</v>
       </c>
       <c r="AQ37" s="18" t="n">
-        <v>2218</v>
+        <v>3052</v>
       </c>
       <c r="AR37" s="18" t="n">
-        <v>3052</v>
+        <v>3758756</v>
       </c>
       <c r="AS37" s="18" t="n">
-        <v>3758756</v>
+        <v>2414</v>
       </c>
       <c r="AT37" s="18" t="n">
-        <v>2414</v>
+        <v>2766</v>
       </c>
       <c r="AU37" s="18" t="n">
-        <v>2766</v>
+        <v>2289</v>
       </c>
       <c r="AV37" s="18" t="n">
-        <v>2289</v>
+        <v>2455</v>
       </c>
       <c r="AW37" s="18" t="n">
-        <v>2455</v>
+        <v>2929</v>
       </c>
       <c r="AX37" s="18" t="n">
-        <v>2929</v>
+        <v>3216</v>
       </c>
       <c r="AY37" s="18" t="n">
-        <v>3216</v>
+        <v>2131</v>
       </c>
       <c r="AZ37" s="18" t="n">
-        <v>2131</v>
+        <v>2744</v>
       </c>
       <c r="BA37" s="18" t="n">
-        <v>2744</v>
+        <v>2803</v>
       </c>
       <c r="BB37" s="18" t="n">
-        <v>2803</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6985,89 +6985,89 @@
       <c r="Z44" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AA44" s="13" t="s">
-        <v>58</v>
+      <c r="AA44" s="13" t="n">
+        <v>1191457</v>
       </c>
       <c r="AB44" s="13" t="n">
-        <v>1191457</v>
+        <v>1355871</v>
       </c>
       <c r="AC44" s="13" t="n">
-        <v>1355871</v>
+        <v>1592498</v>
       </c>
       <c r="AD44" s="13" t="n">
-        <v>1592498</v>
+        <v>1523931</v>
       </c>
       <c r="AE44" s="13" t="n">
-        <v>1523931</v>
+        <v>1819777</v>
       </c>
       <c r="AF44" s="13" t="n">
-        <v>1819777</v>
+        <v>1892779</v>
       </c>
       <c r="AG44" s="13" t="n">
-        <v>1892779</v>
+        <v>1193279</v>
       </c>
       <c r="AH44" s="13" t="n">
-        <v>1193279</v>
+        <v>1695357</v>
       </c>
       <c r="AI44" s="13" t="n">
-        <v>1695357</v>
+        <v>1712597</v>
       </c>
       <c r="AJ44" s="13" t="n">
-        <v>1712597</v>
+        <v>1392264</v>
       </c>
       <c r="AK44" s="13" t="n">
-        <v>1392264</v>
+        <v>1666609</v>
       </c>
       <c r="AL44" s="13" t="n">
-        <v>1666609</v>
+        <v>2406247</v>
       </c>
       <c r="AM44" s="13" t="n">
-        <v>2406247</v>
+        <v>1528367</v>
       </c>
       <c r="AN44" s="13" t="n">
-        <v>1528367</v>
+        <v>1828344</v>
       </c>
       <c r="AO44" s="13" t="n">
-        <v>1828344</v>
+        <v>1741513</v>
       </c>
       <c r="AP44" s="13" t="n">
-        <v>1741513</v>
+        <v>1414660</v>
       </c>
       <c r="AQ44" s="13" t="n">
-        <v>1414660</v>
+        <v>2144452</v>
       </c>
       <c r="AR44" s="13" t="n">
-        <v>2144452</v>
+        <v>3184013</v>
       </c>
       <c r="AS44" s="13" t="n">
-        <v>3184013</v>
+        <v>2011958</v>
       </c>
       <c r="AT44" s="13" t="n">
-        <v>2011958</v>
+        <v>2463859</v>
       </c>
       <c r="AU44" s="13" t="n">
-        <v>2463859</v>
+        <v>2101282</v>
       </c>
       <c r="AV44" s="13" t="n">
-        <v>2101282</v>
+        <v>2264156</v>
       </c>
       <c r="AW44" s="13" t="n">
-        <v>2264156</v>
+        <v>2882096</v>
       </c>
       <c r="AX44" s="13" t="n">
-        <v>2882096</v>
+        <v>3042227</v>
       </c>
       <c r="AY44" s="13" t="n">
-        <v>3042227</v>
+        <v>2047893</v>
       </c>
       <c r="AZ44" s="13" t="n">
-        <v>2047893</v>
+        <v>2773232</v>
       </c>
       <c r="BA44" s="13" t="n">
-        <v>2773232</v>
+        <v>2987920</v>
       </c>
       <c r="BB44" s="13" t="n">
-        <v>2987920</v>
+        <v>3276050</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7144,44 +7144,44 @@
       <c r="Z45" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AA45" s="16" t="s">
-        <v>58</v>
+      <c r="AA45" s="16" t="n">
+        <v>1141</v>
       </c>
       <c r="AB45" s="16" t="n">
-        <v>1141</v>
+        <v>619</v>
       </c>
       <c r="AC45" s="16" t="n">
-        <v>619</v>
+        <v>1458</v>
       </c>
       <c r="AD45" s="16" t="n">
-        <v>1458</v>
+        <v>762</v>
       </c>
       <c r="AE45" s="16" t="n">
-        <v>762</v>
+        <v>0</v>
       </c>
       <c r="AF45" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AG45" s="16" t="n">
-        <v>0</v>
+        <v>852</v>
       </c>
       <c r="AH45" s="16" t="n">
-        <v>852</v>
+        <v>883</v>
       </c>
       <c r="AI45" s="16" t="n">
-        <v>883</v>
+        <v>448</v>
       </c>
       <c r="AJ45" s="16" t="n">
-        <v>448</v>
+        <v>217</v>
       </c>
       <c r="AK45" s="16" t="n">
-        <v>217</v>
+        <v>1009</v>
       </c>
       <c r="AL45" s="16" t="n">
-        <v>1009</v>
+        <v>583</v>
       </c>
       <c r="AM45" s="16" t="n">
-        <v>583</v>
+        <v>0</v>
       </c>
       <c r="AN45" s="16" t="n">
         <v>0</v>
@@ -7199,10 +7199,10 @@
         <v>0</v>
       </c>
       <c r="AS45" s="16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT45" s="16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU45" s="16" t="n">
         <v>0</v>
@@ -7222,8 +7222,8 @@
       <c r="AZ45" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="BA45" s="16" t="n">
-        <v>0</v>
+      <c r="BA45" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="BB45" s="16" t="s">
         <v>58</v>
@@ -7302,88 +7302,88 @@
         <v>0</v>
       </c>
       <c r="AA46" s="18" t="n">
-        <v>0</v>
+        <v>1192598</v>
       </c>
       <c r="AB46" s="18" t="n">
-        <v>1192598</v>
+        <v>1356490</v>
       </c>
       <c r="AC46" s="18" t="n">
-        <v>1356490</v>
+        <v>1593956</v>
       </c>
       <c r="AD46" s="18" t="n">
-        <v>1593956</v>
+        <v>1524693</v>
       </c>
       <c r="AE46" s="18" t="n">
-        <v>1524693</v>
+        <v>1819777</v>
       </c>
       <c r="AF46" s="18" t="n">
-        <v>1819777</v>
+        <v>1892779</v>
       </c>
       <c r="AG46" s="18" t="n">
-        <v>1892779</v>
+        <v>1194131</v>
       </c>
       <c r="AH46" s="18" t="n">
-        <v>1194131</v>
+        <v>1696240</v>
       </c>
       <c r="AI46" s="18" t="n">
-        <v>1696240</v>
+        <v>1713045</v>
       </c>
       <c r="AJ46" s="18" t="n">
-        <v>1713045</v>
+        <v>1392481</v>
       </c>
       <c r="AK46" s="18" t="n">
-        <v>1392481</v>
+        <v>1667618</v>
       </c>
       <c r="AL46" s="18" t="n">
-        <v>1667618</v>
+        <v>2406830</v>
       </c>
       <c r="AM46" s="18" t="n">
-        <v>2406830</v>
+        <v>1528367</v>
       </c>
       <c r="AN46" s="18" t="n">
-        <v>1528367</v>
+        <v>1828344</v>
       </c>
       <c r="AO46" s="18" t="n">
-        <v>1828344</v>
+        <v>1741513</v>
       </c>
       <c r="AP46" s="18" t="n">
-        <v>1741513</v>
+        <v>1414660</v>
       </c>
       <c r="AQ46" s="18" t="n">
-        <v>1414660</v>
+        <v>2144452</v>
       </c>
       <c r="AR46" s="18" t="n">
-        <v>2144452</v>
+        <v>3184013</v>
       </c>
       <c r="AS46" s="18" t="n">
-        <v>3184013</v>
+        <v>2011959</v>
       </c>
       <c r="AT46" s="18" t="n">
-        <v>2011959</v>
+        <v>2463859</v>
       </c>
       <c r="AU46" s="18" t="n">
-        <v>2463859</v>
+        <v>2101282</v>
       </c>
       <c r="AV46" s="18" t="n">
-        <v>2101282</v>
+        <v>2264156</v>
       </c>
       <c r="AW46" s="18" t="n">
-        <v>2264156</v>
+        <v>2882096</v>
       </c>
       <c r="AX46" s="18" t="n">
-        <v>2882096</v>
+        <v>3042227</v>
       </c>
       <c r="AY46" s="18" t="n">
-        <v>3042227</v>
+        <v>2047893</v>
       </c>
       <c r="AZ46" s="18" t="n">
-        <v>2047893</v>
+        <v>2773232</v>
       </c>
       <c r="BA46" s="18" t="n">
-        <v>2773232</v>
+        <v>2987920</v>
       </c>
       <c r="BB46" s="18" t="n">
-        <v>2987920</v>
+        <v>3276050</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7589,8 +7589,8 @@
       <c r="AX48" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AY48" s="13" t="s">
-        <v>58</v>
+      <c r="AY48" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AZ48" s="13" t="n">
         <v>0</v>
@@ -7890,8 +7890,8 @@
       <c r="Z51" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="AA51" s="18" t="s">
-        <v>58</v>
+      <c r="AA51" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="AB51" s="23" t="n">
         <v>0</v>
@@ -8106,89 +8106,89 @@
       <c r="Z53" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AA53" s="13" t="s">
-        <v>58</v>
+      <c r="AA53" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AB53" s="13" t="n">
-        <v>0</v>
+        <v>-78</v>
       </c>
       <c r="AC53" s="13" t="n">
-        <v>-78</v>
+        <v>-5051</v>
       </c>
       <c r="AD53" s="13" t="n">
-        <v>-5051</v>
+        <v>-90</v>
       </c>
       <c r="AE53" s="13" t="n">
-        <v>-90</v>
+        <v>-4</v>
       </c>
       <c r="AF53" s="13" t="n">
-        <v>-4</v>
+        <v>-6637</v>
       </c>
       <c r="AG53" s="13" t="n">
-        <v>-6637</v>
+        <v>-24</v>
       </c>
       <c r="AH53" s="13" t="n">
-        <v>-24</v>
+        <v>-28202</v>
       </c>
       <c r="AI53" s="13" t="n">
-        <v>-28202</v>
+        <v>0</v>
       </c>
       <c r="AJ53" s="13" t="n">
-        <v>0</v>
+        <v>-37</v>
       </c>
       <c r="AK53" s="13" t="n">
-        <v>-37</v>
+        <v>-8</v>
       </c>
       <c r="AL53" s="13" t="n">
-        <v>-8</v>
+        <v>-1637</v>
       </c>
       <c r="AM53" s="13" t="n">
-        <v>-1637</v>
+        <v>0</v>
       </c>
       <c r="AN53" s="13" t="n">
-        <v>0</v>
+        <v>-594</v>
       </c>
       <c r="AO53" s="13" t="n">
-        <v>-594</v>
+        <v>-10484</v>
       </c>
       <c r="AP53" s="13" t="n">
-        <v>-10484</v>
+        <v>0</v>
       </c>
       <c r="AQ53" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AR53" s="13" t="n">
-        <v>0</v>
+        <v>-35</v>
       </c>
       <c r="AS53" s="13" t="n">
-        <v>-35</v>
+        <v>-14</v>
       </c>
       <c r="AT53" s="13" t="n">
-        <v>-14</v>
+        <v>-7134</v>
       </c>
       <c r="AU53" s="13" t="n">
-        <v>-7134</v>
+        <v>-38</v>
       </c>
       <c r="AV53" s="13" t="n">
-        <v>-38</v>
+        <v>0</v>
       </c>
       <c r="AW53" s="13" t="n">
-        <v>0</v>
+        <v>-148836</v>
       </c>
       <c r="AX53" s="13" t="n">
-        <v>-148836</v>
+        <v>-3622</v>
       </c>
       <c r="AY53" s="13" t="n">
-        <v>-3622</v>
+        <v>-62</v>
       </c>
       <c r="AZ53" s="13" t="n">
-        <v>-62</v>
+        <v>-402</v>
       </c>
       <c r="BA53" s="13" t="n">
-        <v>-402</v>
+        <v>-9</v>
       </c>
       <c r="BB53" s="13" t="n">
-        <v>-9</v>
+        <v>-3625</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8265,89 +8265,89 @@
       <c r="Z54" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="AA54" s="20" t="s">
-        <v>58</v>
+      <c r="AA54" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AB54" s="24" t="n">
-        <v>0</v>
+        <v>-78</v>
       </c>
       <c r="AC54" s="24" t="n">
-        <v>-78</v>
+        <v>-5051</v>
       </c>
       <c r="AD54" s="24" t="n">
-        <v>-5051</v>
+        <v>-90</v>
       </c>
       <c r="AE54" s="24" t="n">
-        <v>-90</v>
+        <v>-4</v>
       </c>
       <c r="AF54" s="24" t="n">
-        <v>-4</v>
+        <v>-6637</v>
       </c>
       <c r="AG54" s="24" t="n">
-        <v>-6637</v>
+        <v>-24</v>
       </c>
       <c r="AH54" s="24" t="n">
-        <v>-24</v>
+        <v>-28202</v>
       </c>
       <c r="AI54" s="24" t="n">
-        <v>-28202</v>
+        <v>0</v>
       </c>
       <c r="AJ54" s="24" t="n">
-        <v>0</v>
+        <v>-37</v>
       </c>
       <c r="AK54" s="24" t="n">
-        <v>-37</v>
+        <v>-8</v>
       </c>
       <c r="AL54" s="24" t="n">
-        <v>-8</v>
+        <v>-1637</v>
       </c>
       <c r="AM54" s="24" t="n">
-        <v>-1637</v>
+        <v>0</v>
       </c>
       <c r="AN54" s="24" t="n">
-        <v>0</v>
+        <v>-594</v>
       </c>
       <c r="AO54" s="24" t="n">
-        <v>-594</v>
+        <v>-10484</v>
       </c>
       <c r="AP54" s="24" t="n">
-        <v>-10484</v>
+        <v>0</v>
       </c>
       <c r="AQ54" s="24" t="n">
         <v>0</v>
       </c>
       <c r="AR54" s="24" t="n">
-        <v>0</v>
+        <v>-35</v>
       </c>
       <c r="AS54" s="24" t="n">
-        <v>-35</v>
+        <v>-14</v>
       </c>
       <c r="AT54" s="24" t="n">
-        <v>-14</v>
+        <v>-7134</v>
       </c>
       <c r="AU54" s="24" t="n">
-        <v>-7134</v>
+        <v>-38</v>
       </c>
       <c r="AV54" s="24" t="n">
-        <v>-38</v>
+        <v>0</v>
       </c>
       <c r="AW54" s="24" t="n">
-        <v>0</v>
+        <v>-148836</v>
       </c>
       <c r="AX54" s="24" t="n">
-        <v>-148836</v>
+        <v>-3622</v>
       </c>
       <c r="AY54" s="24" t="n">
-        <v>-3622</v>
+        <v>-62</v>
       </c>
       <c r="AZ54" s="24" t="n">
-        <v>-62</v>
+        <v>-402</v>
       </c>
       <c r="BA54" s="24" t="n">
-        <v>-402</v>
+        <v>-9</v>
       </c>
       <c r="BB54" s="24" t="n">
-        <v>-9</v>
+        <v>-3625</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8481,20 +8481,20 @@
       <c r="Z56" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AA56" s="13" t="s">
-        <v>58</v>
+      <c r="AA56" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AB56" s="13" t="n">
-        <v>0</v>
+        <v>-109</v>
       </c>
       <c r="AC56" s="13" t="n">
-        <v>-109</v>
+        <v>0</v>
       </c>
       <c r="AD56" s="13" t="n">
-        <v>0</v>
+        <v>-108</v>
       </c>
       <c r="AE56" s="13" t="n">
-        <v>-108</v>
+        <v>0</v>
       </c>
       <c r="AF56" s="13" t="n">
         <v>0</v>
@@ -8503,10 +8503,10 @@
         <v>0</v>
       </c>
       <c r="AH56" s="13" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AI56" s="13" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AJ56" s="13" t="n">
         <v>0</v>
@@ -8515,55 +8515,55 @@
         <v>0</v>
       </c>
       <c r="AL56" s="13" t="n">
-        <v>0</v>
+        <v>-218</v>
       </c>
       <c r="AM56" s="13" t="n">
-        <v>-218</v>
+        <v>0</v>
       </c>
       <c r="AN56" s="13" t="n">
-        <v>0</v>
+        <v>-38</v>
       </c>
       <c r="AO56" s="13" t="n">
-        <v>-38</v>
+        <v>0</v>
       </c>
       <c r="AP56" s="13" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="AQ56" s="13" t="n">
-        <v>-20</v>
+        <v>-981</v>
       </c>
       <c r="AR56" s="13" t="n">
-        <v>-981</v>
+        <v>-2552</v>
       </c>
       <c r="AS56" s="13" t="n">
-        <v>-2552</v>
+        <v>-663</v>
       </c>
       <c r="AT56" s="13" t="n">
-        <v>-663</v>
+        <v>-747</v>
       </c>
       <c r="AU56" s="13" t="n">
-        <v>-747</v>
+        <v>-664</v>
       </c>
       <c r="AV56" s="13" t="n">
-        <v>-664</v>
+        <v>-2136</v>
       </c>
       <c r="AW56" s="13" t="n">
-        <v>-2136</v>
+        <v>-2432</v>
       </c>
       <c r="AX56" s="13" t="n">
-        <v>-2432</v>
+        <v>-4595</v>
       </c>
       <c r="AY56" s="13" t="n">
-        <v>-4595</v>
+        <v>-630</v>
       </c>
       <c r="AZ56" s="13" t="n">
-        <v>-630</v>
+        <v>-1632</v>
       </c>
       <c r="BA56" s="13" t="n">
-        <v>-1632</v>
+        <v>-2352</v>
       </c>
       <c r="BB56" s="13" t="n">
-        <v>-2352</v>
+        <v>-5626</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8639,88 +8639,88 @@
         <v>0</v>
       </c>
       <c r="AA57" s="24" t="n">
-        <v>0</v>
+        <v>1192598</v>
       </c>
       <c r="AB57" s="24" t="n">
-        <v>1192598</v>
+        <v>1356303</v>
       </c>
       <c r="AC57" s="24" t="n">
-        <v>1356303</v>
+        <v>1588905</v>
       </c>
       <c r="AD57" s="24" t="n">
-        <v>1588905</v>
+        <v>1524495</v>
       </c>
       <c r="AE57" s="24" t="n">
-        <v>1524495</v>
+        <v>1819773</v>
       </c>
       <c r="AF57" s="24" t="n">
-        <v>1819773</v>
+        <v>1886142</v>
       </c>
       <c r="AG57" s="24" t="n">
-        <v>1886142</v>
+        <v>1194107</v>
       </c>
       <c r="AH57" s="24" t="n">
-        <v>1194107</v>
+        <v>1668037</v>
       </c>
       <c r="AI57" s="24" t="n">
-        <v>1668037</v>
+        <v>1713045</v>
       </c>
       <c r="AJ57" s="24" t="n">
-        <v>1713045</v>
+        <v>1392444</v>
       </c>
       <c r="AK57" s="24" t="n">
-        <v>1392444</v>
+        <v>1667610</v>
       </c>
       <c r="AL57" s="24" t="n">
-        <v>1667610</v>
+        <v>2404975</v>
       </c>
       <c r="AM57" s="24" t="n">
-        <v>2404975</v>
+        <v>1528367</v>
       </c>
       <c r="AN57" s="24" t="n">
-        <v>1528367</v>
+        <v>1827712</v>
       </c>
       <c r="AO57" s="24" t="n">
-        <v>1827712</v>
+        <v>1731029</v>
       </c>
       <c r="AP57" s="24" t="n">
-        <v>1731029</v>
+        <v>1414640</v>
       </c>
       <c r="AQ57" s="24" t="n">
-        <v>1414640</v>
+        <v>2143471</v>
       </c>
       <c r="AR57" s="24" t="n">
-        <v>2143471</v>
+        <v>3181426</v>
       </c>
       <c r="AS57" s="24" t="n">
-        <v>3181426</v>
+        <v>2011282</v>
       </c>
       <c r="AT57" s="24" t="n">
-        <v>2011282</v>
+        <v>2455978</v>
       </c>
       <c r="AU57" s="24" t="n">
-        <v>2455978</v>
+        <v>2100580</v>
       </c>
       <c r="AV57" s="24" t="n">
-        <v>2100580</v>
+        <v>2262020</v>
       </c>
       <c r="AW57" s="24" t="n">
-        <v>2262020</v>
+        <v>2730828</v>
       </c>
       <c r="AX57" s="24" t="n">
-        <v>2730828</v>
+        <v>3034010</v>
       </c>
       <c r="AY57" s="24" t="n">
-        <v>3034010</v>
+        <v>2047201</v>
       </c>
       <c r="AZ57" s="24" t="n">
-        <v>2047201</v>
+        <v>2771198</v>
       </c>
       <c r="BA57" s="24" t="n">
-        <v>2771198</v>
+        <v>2985559</v>
       </c>
       <c r="BB57" s="24" t="n">
-        <v>2985559</v>
+        <v>3266799</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9231,89 +9231,89 @@
       <c r="Z64" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AA64" s="13" t="s">
-        <v>58</v>
+      <c r="AA64" s="13" t="n">
+        <v>617335233</v>
       </c>
       <c r="AB64" s="13" t="n">
-        <v>617335233</v>
+        <v>637135568</v>
       </c>
       <c r="AC64" s="13" t="n">
-        <v>637135568</v>
+        <v>644355941</v>
       </c>
       <c r="AD64" s="13" t="n">
-        <v>644355941</v>
+        <v>665452873</v>
       </c>
       <c r="AE64" s="13" t="n">
-        <v>665452873</v>
+        <v>663560071</v>
       </c>
       <c r="AF64" s="13" t="n">
-        <v>663560071</v>
+        <v>654401911</v>
       </c>
       <c r="AG64" s="13" t="n">
-        <v>654401911</v>
+        <v>615457101</v>
       </c>
       <c r="AH64" s="13" t="n">
-        <v>615457101</v>
+        <v>679847858</v>
       </c>
       <c r="AI64" s="13" t="n">
-        <v>679847858</v>
+        <v>669182651</v>
       </c>
       <c r="AJ64" s="13" t="n">
-        <v>669182651</v>
+        <v>659472579</v>
       </c>
       <c r="AK64" s="13" t="n">
-        <v>659472579</v>
+        <v>693923972</v>
       </c>
       <c r="AL64" s="13" t="n">
-        <v>693923972</v>
+        <v>637923383</v>
       </c>
       <c r="AM64" s="13" t="n">
-        <v>637923383</v>
+        <v>680746450</v>
       </c>
       <c r="AN64" s="13" t="n">
-        <v>680746450</v>
+        <v>703885502</v>
       </c>
       <c r="AO64" s="13" t="n">
-        <v>703885502</v>
+        <v>676562706</v>
       </c>
       <c r="AP64" s="13" t="n">
-        <v>676562706</v>
+        <v>637722868</v>
       </c>
       <c r="AQ64" s="13" t="n">
-        <v>637722868</v>
+        <v>702554939</v>
       </c>
       <c r="AR64" s="13" t="n">
-        <v>702554939</v>
+        <v>847092</v>
       </c>
       <c r="AS64" s="13" t="n">
-        <v>847092</v>
+        <v>833323186</v>
       </c>
       <c r="AT64" s="13" t="n">
-        <v>833323186</v>
+        <v>888672920</v>
       </c>
       <c r="AU64" s="13" t="n">
-        <v>888672920</v>
+        <v>918136464</v>
       </c>
       <c r="AV64" s="13" t="n">
-        <v>918136464</v>
+        <v>922409670</v>
       </c>
       <c r="AW64" s="13" t="n">
-        <v>922409670</v>
+        <v>926239471</v>
       </c>
       <c r="AX64" s="13" t="n">
-        <v>926239471</v>
+        <v>945002299</v>
       </c>
       <c r="AY64" s="13" t="n">
-        <v>945002299</v>
+        <v>960811572</v>
       </c>
       <c r="AZ64" s="13" t="n">
-        <v>960811572</v>
+        <v>1010619914</v>
       </c>
       <c r="BA64" s="13" t="n">
-        <v>1010619914</v>
+        <v>1066044434</v>
       </c>
       <c r="BB64" s="13" t="n">
-        <v>1066044434</v>
+        <v>1139269780</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9390,45 +9390,45 @@
       <c r="Z65" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AA65" s="16" t="s">
-        <v>58</v>
+      <c r="AA65" s="16" t="n">
+        <v>570500000</v>
       </c>
       <c r="AB65" s="16" t="n">
-        <v>570500000</v>
+        <v>353512279</v>
       </c>
       <c r="AC65" s="16" t="n">
-        <v>353512279</v>
+        <v>453358209</v>
       </c>
       <c r="AD65" s="16" t="n">
-        <v>453358209</v>
-      </c>
-      <c r="AE65" s="16" t="n">
         <v>473586078</v>
       </c>
+      <c r="AE65" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AF65" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AG65" s="16" t="s">
-        <v>58</v>
+      <c r="AG65" s="16" t="n">
+        <v>474123539</v>
       </c>
       <c r="AH65" s="16" t="n">
-        <v>474123539</v>
+        <v>472192513</v>
       </c>
       <c r="AI65" s="16" t="n">
-        <v>472192513</v>
+        <v>472573840</v>
       </c>
       <c r="AJ65" s="16" t="n">
-        <v>472573840</v>
+        <v>474835886</v>
       </c>
       <c r="AK65" s="16" t="n">
-        <v>474835886</v>
+        <v>473486626</v>
       </c>
       <c r="AL65" s="16" t="n">
-        <v>473486626</v>
-      </c>
-      <c r="AM65" s="16" t="n">
         <v>473983740</v>
       </c>
+      <c r="AM65" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AN65" s="16" t="s">
         <v>58</v>
       </c>
@@ -9444,11 +9444,11 @@
       <c r="AR65" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AS65" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT65" s="16" t="n">
+      <c r="AS65" s="16" t="n">
         <v>500000000</v>
+      </c>
+      <c r="AT65" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AU65" s="16" t="s">
         <v>58</v>
